--- a/SBTF_data/ml4rt_output/trained_models/m4/error_estimates.xlsx
+++ b/SBTF_data/ml4rt_output/trained_models/m4/error_estimates.xlsx
@@ -528,10 +528,10 @@
         <v>7575860.082751503</v>
       </c>
       <c r="E2" t="n">
-        <v>423063.6092627779</v>
+        <v>423090.6694859331</v>
       </c>
       <c r="F2" t="n">
-        <v>7575764.438287358</v>
+        <v>7575718.998403099</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -551,13 +551,13 @@
         <v>186.1597965033725</v>
       </c>
       <c r="L2" t="n">
-        <v>-66.71201144572115</v>
+        <v>-39.65178829053184</v>
       </c>
       <c r="M2" t="n">
-        <v>-95.64446414541453</v>
+        <v>-141.0843484038487</v>
       </c>
       <c r="N2" t="n">
-        <v>116.6119890611489</v>
+        <v>146.5505294401072</v>
       </c>
       <c r="O2" t="n">
         <v>261.8899907927122</v>
@@ -577,10 +577,10 @@
         <v>7575860.082751503</v>
       </c>
       <c r="E3" t="n">
-        <v>423042.577509076</v>
+        <v>423071.9518220352</v>
       </c>
       <c r="F3" t="n">
-        <v>7575775.456608935</v>
+        <v>7575718.469756111</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -600,13 +600,13 @@
         <v>186.1597965033725</v>
       </c>
       <c r="L3" t="n">
-        <v>-87.74376514763571</v>
+        <v>-58.36945218843175</v>
       </c>
       <c r="M3" t="n">
-        <v>-84.62614256795496</v>
+        <v>-141.6129953926429</v>
       </c>
       <c r="N3" t="n">
-        <v>121.9038651077778</v>
+        <v>153.1706023127621</v>
       </c>
       <c r="O3" t="n">
         <v>261.8899907927122</v>
@@ -626,10 +626,10 @@
         <v>7565713.392715272</v>
       </c>
       <c r="E4" t="n">
-        <v>427203.8044379372</v>
+        <v>427187.878411158</v>
       </c>
       <c r="F4" t="n">
-        <v>7565686.373958473</v>
+        <v>7565648.926390926</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
@@ -649,13 +649,13 @@
         <v>200.9395686058948</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.6576442955993</v>
+        <v>-133.5836710748263</v>
       </c>
       <c r="M4" t="n">
-        <v>-27.01875679939985</v>
+        <v>-64.46632434614003</v>
       </c>
       <c r="N4" t="n">
-        <v>120.7200666011036</v>
+        <v>148.3256692300058</v>
       </c>
       <c r="O4" t="n">
         <v>208.0969103936671</v>
@@ -675,10 +675,10 @@
         <v>7565713.392715272</v>
       </c>
       <c r="E5" t="n">
-        <v>427235.3107482965</v>
+        <v>427239.8603100916</v>
       </c>
       <c r="F5" t="n">
-        <v>7565739.39847903</v>
+        <v>7565742.031512886</v>
       </c>
       <c r="G5" t="n">
         <v>3</v>
@@ -698,13 +698,13 @@
         <v>200.9395686058948</v>
       </c>
       <c r="L5" t="n">
-        <v>-86.1513339363155</v>
+        <v>-81.60177214117721</v>
       </c>
       <c r="M5" t="n">
-        <v>26.00576375797391</v>
+        <v>28.63879761379212</v>
       </c>
       <c r="N5" t="n">
-        <v>89.99084446565715</v>
+        <v>86.48138496430518</v>
       </c>
       <c r="O5" t="n">
         <v>208.0969103936671</v>
@@ -724,10 +724,10 @@
         <v>7565713.392715272</v>
       </c>
       <c r="E6" t="n">
-        <v>427223.8382619047</v>
+        <v>427259.1128479581</v>
       </c>
       <c r="F6" t="n">
-        <v>7565675.701921866</v>
+        <v>7565673.67055079</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -747,13 +747,13 @@
         <v>200.9395686058948</v>
       </c>
       <c r="L6" t="n">
-        <v>-97.62382032815367</v>
+        <v>-62.34923427476315</v>
       </c>
       <c r="M6" t="n">
-        <v>-37.69079340621829</v>
+        <v>-39.7221644828096</v>
       </c>
       <c r="N6" t="n">
-        <v>104.6470553960017</v>
+        <v>73.92751426802256</v>
       </c>
       <c r="O6" t="n">
         <v>208.0969103936671</v>
@@ -773,10 +773,10 @@
         <v>7565713.392715272</v>
       </c>
       <c r="E7" t="n">
-        <v>427192.8903784097</v>
+        <v>427206.9297772835</v>
       </c>
       <c r="F7" t="n">
-        <v>7565651.088109196</v>
+        <v>7565673.532221846</v>
       </c>
       <c r="G7" t="n">
         <v>3</v>
@@ -796,13 +796,13 @@
         <v>200.9395686058948</v>
       </c>
       <c r="L7" t="n">
-        <v>-128.5717038231087</v>
+        <v>-114.5323049493018</v>
       </c>
       <c r="M7" t="n">
-        <v>-62.30460607632995</v>
+        <v>-39.86049342621118</v>
       </c>
       <c r="N7" t="n">
-        <v>142.8724849728031</v>
+        <v>121.2703913293796</v>
       </c>
       <c r="O7" t="n">
         <v>208.0969103936671</v>
@@ -822,10 +822,10 @@
         <v>7565713.392715272</v>
       </c>
       <c r="E8" t="n">
-        <v>427533.0119724586</v>
+        <v>427545.9779297998</v>
       </c>
       <c r="F8" t="n">
-        <v>7565618.452141817</v>
+        <v>7565606.113052002</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
@@ -845,13 +845,13 @@
         <v>200.9395686058948</v>
       </c>
       <c r="L8" t="n">
-        <v>211.5498902258114</v>
+        <v>224.5158475670032</v>
       </c>
       <c r="M8" t="n">
-        <v>-94.94057345576584</v>
+        <v>-107.2796632703394</v>
       </c>
       <c r="N8" t="n">
-        <v>231.8772704312834</v>
+        <v>248.829845396663</v>
       </c>
       <c r="O8" t="n">
         <v>208.0969103936671</v>
@@ -871,10 +871,10 @@
         <v>7565713.392715272</v>
       </c>
       <c r="E9" t="n">
-        <v>427201.821463884</v>
+        <v>427231.0890574123</v>
       </c>
       <c r="F9" t="n">
-        <v>7565669.435785932</v>
+        <v>7565690.076921026</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -894,13 +894,13 @@
         <v>200.9395686058948</v>
       </c>
       <c r="L9" t="n">
-        <v>-119.6406183487852</v>
+        <v>-90.37302482052473</v>
       </c>
       <c r="M9" t="n">
-        <v>-43.9569293409586</v>
+        <v>-23.31579424627125</v>
       </c>
       <c r="N9" t="n">
-        <v>127.460147481343</v>
+        <v>93.33225528479227</v>
       </c>
       <c r="O9" t="n">
         <v>208.0969103936671</v>
@@ -920,10 +920,10 @@
         <v>7565804.191765676</v>
       </c>
       <c r="E10" t="n">
-        <v>427587.6627369659</v>
+        <v>427575.4701169662</v>
       </c>
       <c r="F10" t="n">
-        <v>7565460.938002598</v>
+        <v>7565504.802845134</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -943,13 +943,13 @@
         <v>626.5592236761004</v>
       </c>
       <c r="L10" t="n">
-        <v>211.7054295338457</v>
+        <v>199.5128095341497</v>
       </c>
       <c r="M10" t="n">
-        <v>-343.2537630777806</v>
+        <v>-299.3889205418527</v>
       </c>
       <c r="N10" t="n">
-        <v>403.2893933159751</v>
+        <v>359.7764401839366</v>
       </c>
       <c r="O10" t="n">
         <v>726.3905669176061</v>
@@ -969,10 +969,10 @@
         <v>7565804.191765676</v>
       </c>
       <c r="E11" t="n">
-        <v>427561.253038905</v>
+        <v>427570.8691236607</v>
       </c>
       <c r="F11" t="n">
-        <v>7565560.420184208</v>
+        <v>7565543.331173551</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -992,13 +992,13 @@
         <v>626.5592236761004</v>
       </c>
       <c r="L11" t="n">
-        <v>185.2957314729574</v>
+        <v>194.911816228705</v>
       </c>
       <c r="M11" t="n">
-        <v>-243.7715814681724</v>
+        <v>-260.8605921249837</v>
       </c>
       <c r="N11" t="n">
-        <v>306.2010647166207</v>
+        <v>325.6360923321762</v>
       </c>
       <c r="O11" t="n">
         <v>726.3905669176061</v>
@@ -1018,10 +1018,10 @@
         <v>7565517.838814734</v>
       </c>
       <c r="E12" t="n">
-        <v>427273.2769606786</v>
+        <v>427236.1959470458</v>
       </c>
       <c r="F12" t="n">
-        <v>7565758.615248407</v>
+        <v>7565705.291997802</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
@@ -1041,13 +1041,13 @@
         <v>5.385668066951136</v>
       </c>
       <c r="L12" t="n">
-        <v>-9.553093792230356</v>
+        <v>-46.63410742505221</v>
       </c>
       <c r="M12" t="n">
-        <v>240.7764336736873</v>
+        <v>187.4531830688938</v>
       </c>
       <c r="N12" t="n">
-        <v>240.9658743756524</v>
+        <v>193.1668600407211</v>
       </c>
       <c r="O12" t="n">
         <v>92.89570646527693</v>
@@ -1067,10 +1067,10 @@
         <v>7565517.838814734</v>
       </c>
       <c r="E13" t="n">
-        <v>427250.2324115336</v>
+        <v>427282.1675794476</v>
       </c>
       <c r="F13" t="n">
-        <v>7565635.304191043</v>
+        <v>7565616.704007783</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -1090,13 +1090,13 @@
         <v>5.385668066951136</v>
       </c>
       <c r="L13" t="n">
-        <v>-32.59764293720946</v>
+        <v>-0.6624750232440419</v>
       </c>
       <c r="M13" t="n">
-        <v>117.4653763091192</v>
+        <v>98.8651930494234</v>
       </c>
       <c r="N13" t="n">
-        <v>121.9045567503724</v>
+        <v>98.86741257793783</v>
       </c>
       <c r="O13" t="n">
         <v>92.89570646527693</v>
@@ -1116,10 +1116,10 @@
         <v>7551032.363539526</v>
       </c>
       <c r="E14" t="n">
-        <v>436577.3608788612</v>
+        <v>436615.9132816597</v>
       </c>
       <c r="F14" t="n">
-        <v>7550771.348752682</v>
+        <v>7550783.529404237</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1139,13 +1139,13 @@
         <v>-281.5523264734074</v>
       </c>
       <c r="L14" t="n">
-        <v>-261.4762153562624</v>
+        <v>-222.9238125577685</v>
       </c>
       <c r="M14" t="n">
-        <v>-261.0147868441418</v>
+        <v>-248.834135289304</v>
       </c>
       <c r="N14" t="n">
-        <v>369.4570748386438</v>
+        <v>334.0859965494914</v>
       </c>
       <c r="O14" t="n">
         <v>333.0864405745596</v>
@@ -1165,10 +1165,10 @@
         <v>7551032.363539526</v>
       </c>
       <c r="E15" t="n">
-        <v>436456.2557612092</v>
+        <v>436480.4314518376</v>
       </c>
       <c r="F15" t="n">
-        <v>7550762.208773884</v>
+        <v>7550690.875832529</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1188,13 +1188,13 @@
         <v>-281.5523264734074</v>
       </c>
       <c r="L15" t="n">
-        <v>-382.5813330082456</v>
+        <v>-358.405642379832</v>
       </c>
       <c r="M15" t="n">
-        <v>-270.1547656422481</v>
+        <v>-341.4877069974318</v>
       </c>
       <c r="N15" t="n">
-        <v>468.3503750031424</v>
+        <v>495.043895548732</v>
       </c>
       <c r="O15" t="n">
         <v>333.0864405745596</v>
@@ -1214,10 +1214,10 @@
         <v>7551032.363539526</v>
       </c>
       <c r="E16" t="n">
-        <v>436616.0598398612</v>
+        <v>436615.9132816597</v>
       </c>
       <c r="F16" t="n">
-        <v>7550764.781473624</v>
+        <v>7550769.355561943</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1237,13 +1237,13 @@
         <v>-281.5523264734074</v>
       </c>
       <c r="L16" t="n">
-        <v>-222.777254356246</v>
+        <v>-222.9238125577685</v>
       </c>
       <c r="M16" t="n">
-        <v>-267.5820659026504</v>
+        <v>-263.0079775834456</v>
       </c>
       <c r="N16" t="n">
-        <v>348.1807964998039</v>
+        <v>344.7727113299795</v>
       </c>
       <c r="O16" t="n">
         <v>333.0864405745596</v>
@@ -1263,10 +1263,10 @@
         <v>7551032.363539526</v>
       </c>
       <c r="E17" t="n">
-        <v>436491.7675288211</v>
+        <v>436453.4417740508</v>
       </c>
       <c r="F17" t="n">
-        <v>7550770.135408247</v>
+        <v>7550790.962299257</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1286,13 +1286,13 @@
         <v>-281.5523264734074</v>
       </c>
       <c r="L17" t="n">
-        <v>-347.0695653962903</v>
+        <v>-385.3953201666591</v>
       </c>
       <c r="M17" t="n">
-        <v>-262.2281312793493</v>
+        <v>-241.4012402696535</v>
       </c>
       <c r="N17" t="n">
-        <v>434.9952598116783</v>
+        <v>454.7572007237364</v>
       </c>
       <c r="O17" t="n">
         <v>333.0864405745596</v>
@@ -1312,10 +1312,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E18" t="n">
-        <v>436812.1811317513</v>
+        <v>436896.9570391932</v>
       </c>
       <c r="F18" t="n">
-        <v>7551639.967182507</v>
+        <v>7551612.745166599</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1335,13 +1335,13 @@
         <v>-287.5907922992483</v>
       </c>
       <c r="L18" t="n">
-        <v>-185.4322632822441</v>
+        <v>-100.6563558403868</v>
       </c>
       <c r="M18" t="n">
-        <v>574.1990958061069</v>
+        <v>546.977079898119</v>
       </c>
       <c r="N18" t="n">
-        <v>603.3984801857941</v>
+        <v>556.1615124268667</v>
       </c>
       <c r="O18" t="n">
         <v>288.3670661137583</v>
@@ -1361,10 +1361,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E19" t="n">
-        <v>436791.7724475597</v>
+        <v>436795.8169759493</v>
       </c>
       <c r="F19" t="n">
-        <v>7551850.786368439</v>
+        <v>7551876.727097536</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1384,13 +1384,13 @@
         <v>-267.8692857990973</v>
       </c>
       <c r="L19" t="n">
-        <v>-205.8409474738291</v>
+        <v>-201.7964190842467</v>
       </c>
       <c r="M19" t="n">
-        <v>785.0182817382738</v>
+        <v>810.9590108348057</v>
       </c>
       <c r="N19" t="n">
-        <v>811.5566513314001</v>
+        <v>835.6891240224389</v>
       </c>
       <c r="O19" t="n">
         <v>322.1431880729987</v>
@@ -1410,10 +1410,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E20" t="n">
-        <v>436710.4284399616</v>
+        <v>436683.8275418226</v>
       </c>
       <c r="F20" t="n">
-        <v>7551647.966820482</v>
+        <v>7551618.746977669</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -1433,13 +1433,13 @@
         <v>-267.8692857990973</v>
       </c>
       <c r="L20" t="n">
-        <v>-287.1849550719489</v>
+        <v>-313.7858532110113</v>
       </c>
       <c r="M20" t="n">
-        <v>582.1987337814644</v>
+        <v>552.9788909684867</v>
       </c>
       <c r="N20" t="n">
-        <v>649.1768357207593</v>
+        <v>635.8043846436574</v>
       </c>
       <c r="O20" t="n">
         <v>322.1431880729987</v>
@@ -1459,10 +1459,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E21" t="n">
-        <v>436695.4760993215</v>
+        <v>436735.9835506752</v>
       </c>
       <c r="F21" t="n">
-        <v>7551945.457737982</v>
+        <v>7551994.678184086</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1482,13 +1482,13 @@
         <v>-267.8692857990973</v>
       </c>
       <c r="L21" t="n">
-        <v>-302.1372957120766</v>
+        <v>-261.6298443583655</v>
       </c>
       <c r="M21" t="n">
-        <v>879.6896512815729</v>
+        <v>928.9100973848253</v>
       </c>
       <c r="N21" t="n">
-        <v>930.1294684247468</v>
+        <v>965.0513688309386</v>
       </c>
       <c r="O21" t="n">
         <v>322.1431880729987</v>
@@ -1508,10 +1508,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E22" t="n">
-        <v>436917.6813400082</v>
+        <v>436986.878144958</v>
       </c>
       <c r="F22" t="n">
-        <v>7552144.347315816</v>
+        <v>7552084.885748113</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1531,13 +1531,13 @@
         <v>-287.5907922992483</v>
       </c>
       <c r="L22" t="n">
-        <v>-79.93205502536148</v>
+        <v>-10.73525007558055</v>
       </c>
       <c r="M22" t="n">
-        <v>1078.579229115508</v>
+        <v>1019.117661411874</v>
       </c>
       <c r="N22" t="n">
-        <v>1081.537002094696</v>
+        <v>1019.174201692621</v>
       </c>
       <c r="O22" t="n">
         <v>288.3670661137583</v>
@@ -1557,10 +1557,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E23" t="n">
-        <v>436758.7436115835</v>
+        <v>436801.8286593342</v>
       </c>
       <c r="F23" t="n">
-        <v>7551715.670218399</v>
+        <v>7551579.750478384</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1580,13 +1580,13 @@
         <v>-287.5907922992483</v>
       </c>
       <c r="L23" t="n">
-        <v>-238.8697834500927</v>
+        <v>-195.7847356994171</v>
       </c>
       <c r="M23" t="n">
-        <v>649.9021316980943</v>
+        <v>513.9823916833848</v>
       </c>
       <c r="N23" t="n">
-        <v>692.4099611005183</v>
+        <v>550.0086923799141</v>
       </c>
       <c r="O23" t="n">
         <v>288.3670661137583</v>
@@ -1606,10 +1606,10 @@
         <v>7576703.444898035</v>
       </c>
       <c r="E24" t="n">
-        <v>424951.9538747346</v>
+        <v>425031.6392290926</v>
       </c>
       <c r="F24" t="n">
-        <v>7576789.893075205</v>
+        <v>7576668.635208144</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1629,13 +1629,13 @@
         <v>292.8544160351157</v>
       </c>
       <c r="L24" t="n">
-        <v>326.4266330532264</v>
+        <v>406.1119874112192</v>
       </c>
       <c r="M24" t="n">
-        <v>86.44817717000842</v>
+        <v>-34.80968989152461</v>
       </c>
       <c r="N24" t="n">
-        <v>337.6797804170141</v>
+        <v>407.6011050395157</v>
       </c>
       <c r="O24" t="n">
         <v>429.4856292461126</v>
@@ -1655,10 +1655,10 @@
         <v>7576703.444898035</v>
       </c>
       <c r="E25" t="n">
-        <v>424927.1966684769</v>
+        <v>424993.766087327</v>
       </c>
       <c r="F25" t="n">
-        <v>7576727.663872363</v>
+        <v>7576614.953303787</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1678,13 +1678,13 @@
         <v>292.8544160351157</v>
       </c>
       <c r="L25" t="n">
-        <v>301.6694267955027</v>
+        <v>368.2388456456247</v>
       </c>
       <c r="M25" t="n">
-        <v>24.21897432766855</v>
+        <v>-88.49159424845129</v>
       </c>
       <c r="N25" t="n">
-        <v>302.6400531664826</v>
+        <v>378.7223385213166</v>
       </c>
       <c r="O25" t="n">
         <v>429.4856292461126</v>
@@ -1704,10 +1704,10 @@
         <v>7576781.227157662</v>
       </c>
       <c r="E26" t="n">
-        <v>425086.1764346114</v>
+        <v>425129.5855648256</v>
       </c>
       <c r="F26" t="n">
-        <v>7577415.758755948</v>
+        <v>7577464.113631427</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1727,13 +1727,13 @@
         <v>370.6366756614298</v>
       </c>
       <c r="L26" t="n">
-        <v>584.4542342671193</v>
+        <v>627.8633644812508</v>
       </c>
       <c r="M26" t="n">
-        <v>634.5315982867032</v>
+        <v>682.8864737655967</v>
       </c>
       <c r="N26" t="n">
-        <v>862.6801847597075</v>
+        <v>927.656369842695</v>
       </c>
       <c r="O26" t="n">
         <v>573.7435873526119</v>
@@ -1753,10 +1753,10 @@
         <v>7576781.227157662</v>
       </c>
       <c r="E27" t="n">
-        <v>425251.6307295053</v>
+        <v>425425.3305460549</v>
       </c>
       <c r="F27" t="n">
-        <v>7577129.996734511</v>
+        <v>7577188.709651868</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1776,13 +1776,13 @@
         <v>370.6366756614298</v>
       </c>
       <c r="L27" t="n">
-        <v>749.9085291609517</v>
+        <v>923.608345710556</v>
       </c>
       <c r="M27" t="n">
-        <v>348.7695768494159</v>
+        <v>407.4824942061678</v>
       </c>
       <c r="N27" t="n">
-        <v>827.0447508110203</v>
+        <v>1009.502035337557</v>
       </c>
       <c r="O27" t="n">
         <v>573.7435873526119</v>
@@ -1802,10 +1802,10 @@
         <v>7576781.227157662</v>
       </c>
       <c r="E28" t="n">
-        <v>425115.4426780819</v>
+        <v>425141.5624186731</v>
       </c>
       <c r="F28" t="n">
-        <v>7577198.870111989</v>
+        <v>7577364.108879168</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1825,13 +1825,13 @@
         <v>370.6366756614298</v>
       </c>
       <c r="L28" t="n">
-        <v>613.7204777375446</v>
+        <v>639.8402183287544</v>
       </c>
       <c r="M28" t="n">
-        <v>417.6429543271661</v>
+        <v>582.8817215058953</v>
       </c>
       <c r="N28" t="n">
-        <v>742.3465916224868</v>
+        <v>865.5325564394815</v>
       </c>
       <c r="O28" t="n">
         <v>573.7435873526119</v>
@@ -1851,10 +1851,10 @@
         <v>7575707.151064353</v>
       </c>
       <c r="E29" t="n">
-        <v>423177.806998999</v>
+        <v>423241.4798675836</v>
       </c>
       <c r="F29" t="n">
-        <v>7575892.877686776</v>
+        <v>7575904.272062606</v>
       </c>
       <c r="G29" t="n">
         <v>4</v>
@@ -1874,13 +1874,13 @@
         <v>-86.76123139681295</v>
       </c>
       <c r="L29" t="n">
-        <v>470.1157205118798</v>
+        <v>533.7885890965117</v>
       </c>
       <c r="M29" t="n">
-        <v>185.7266224231571</v>
+        <v>197.1209982531145</v>
       </c>
       <c r="N29" t="n">
-        <v>505.4732128897809</v>
+        <v>569.0227990177099</v>
       </c>
       <c r="O29" t="n">
         <v>455.3864024070871</v>
@@ -1900,10 +1900,10 @@
         <v>7575707.151064353</v>
       </c>
       <c r="E30" t="n">
-        <v>422780.1934449613</v>
+        <v>422793.0607239169</v>
       </c>
       <c r="F30" t="n">
-        <v>7575641.336269434</v>
+        <v>7575614.23858763</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -1923,13 +1923,13 @@
         <v>-214.3762193135917</v>
       </c>
       <c r="L30" t="n">
-        <v>72.50216647417983</v>
+        <v>85.36944542982383</v>
       </c>
       <c r="M30" t="n">
-        <v>-65.81479491945356</v>
+        <v>-92.91247672308236</v>
       </c>
       <c r="N30" t="n">
-        <v>97.9191062752281</v>
+        <v>126.1771395452163</v>
       </c>
       <c r="O30" t="n">
         <v>426.7390258093054</v>
@@ -1949,10 +1949,10 @@
         <v>7574798.917653348</v>
       </c>
       <c r="E31" t="n">
-        <v>424716.2956009649</v>
+        <v>424713.6076698948</v>
       </c>
       <c r="F31" t="n">
-        <v>7574756.016399759</v>
+        <v>7574731.171742266</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1972,13 +1972,13 @@
         <v>-20.88518965151161</v>
       </c>
       <c r="L31" t="n">
-        <v>-134.246973857691</v>
+        <v>-136.9349049277371</v>
       </c>
       <c r="M31" t="n">
-        <v>-42.90125358942896</v>
+        <v>-67.74591108225286</v>
       </c>
       <c r="N31" t="n">
-        <v>140.9353310901567</v>
+        <v>152.7765579397995</v>
       </c>
       <c r="O31" t="n">
         <v>35.40923253378099</v>
@@ -1998,10 +1998,10 @@
         <v>7574798.917653348</v>
       </c>
       <c r="E32" t="n">
-        <v>424671.6520855376</v>
+        <v>424627.4946526859</v>
       </c>
       <c r="F32" t="n">
-        <v>7574694.910143355</v>
+        <v>7574638.277959457</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2021,13 +2021,13 @@
         <v>-20.88518965151161</v>
       </c>
       <c r="L32" t="n">
-        <v>-178.8904892849387</v>
+        <v>-223.0479221366113</v>
       </c>
       <c r="M32" t="n">
-        <v>-104.0075099933892</v>
+        <v>-160.6396938916296</v>
       </c>
       <c r="N32" t="n">
-        <v>206.9284158631427</v>
+        <v>274.8735833488847</v>
       </c>
       <c r="O32" t="n">
         <v>35.40923253378099</v>
@@ -2047,10 +2047,10 @@
         <v>7574798.917653348</v>
       </c>
       <c r="E33" t="n">
-        <v>424673.418177438</v>
+        <v>424652.118588404</v>
       </c>
       <c r="F33" t="n">
-        <v>7574735.980479997</v>
+        <v>7574720.758652931</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2070,13 +2070,13 @@
         <v>-20.88518965151161</v>
       </c>
       <c r="L33" t="n">
-        <v>-177.1243973845267</v>
+        <v>-198.423986418522</v>
       </c>
       <c r="M33" t="n">
-        <v>-62.93717335164547</v>
+        <v>-78.15900041721761</v>
       </c>
       <c r="N33" t="n">
-        <v>187.9737746025407</v>
+        <v>213.262532415885</v>
       </c>
       <c r="O33" t="n">
         <v>35.40923253378099</v>
@@ -2096,10 +2096,10 @@
         <v>7574798.917653348</v>
       </c>
       <c r="E34" t="n">
-        <v>424699.7891698004</v>
+        <v>424682.2691182953</v>
       </c>
       <c r="F34" t="n">
-        <v>7574720.737893426</v>
+        <v>7574709.887867486</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2119,13 +2119,13 @@
         <v>-20.88518965151161</v>
       </c>
       <c r="L34" t="n">
-        <v>-150.7534050222021</v>
+        <v>-168.2734565272694</v>
       </c>
       <c r="M34" t="n">
-        <v>-78.17975992243737</v>
+        <v>-89.02978586219251</v>
       </c>
       <c r="N34" t="n">
-        <v>169.8195041428341</v>
+        <v>190.3739975477289</v>
       </c>
       <c r="O34" t="n">
         <v>35.40923253378099</v>
@@ -2145,10 +2145,10 @@
         <v>7574798.917653348</v>
       </c>
       <c r="E35" t="n">
-        <v>424695.6227208138</v>
+        <v>424684.7916375075</v>
       </c>
       <c r="F35" t="n">
-        <v>7574766.984412908</v>
+        <v>7574775.140800802</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2168,13 +2168,13 @@
         <v>-20.88518965151161</v>
       </c>
       <c r="L35" t="n">
-        <v>-154.9198540087673</v>
+        <v>-165.7509373150533</v>
       </c>
       <c r="M35" t="n">
-        <v>-31.93324044067413</v>
+        <v>-23.77685254625976</v>
       </c>
       <c r="N35" t="n">
-        <v>158.1767777239746</v>
+        <v>167.4476393916179</v>
       </c>
       <c r="O35" t="n">
         <v>35.40923253378099</v>
@@ -2194,10 +2194,10 @@
         <v>7574798.917653348</v>
       </c>
       <c r="E36" t="n">
-        <v>424703.829411712</v>
+        <v>424670.1208384794</v>
       </c>
       <c r="F36" t="n">
-        <v>7574803.026380731</v>
+        <v>7574832.484025288</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2217,13 +2217,13 @@
         <v>-20.88518965151161</v>
       </c>
       <c r="L36" t="n">
-        <v>-146.713163110544</v>
+        <v>-180.4217363431817</v>
       </c>
       <c r="M36" t="n">
-        <v>4.108727382495999</v>
+        <v>33.56637194007635</v>
       </c>
       <c r="N36" t="n">
-        <v>146.7706846431015</v>
+        <v>183.517585724933</v>
       </c>
       <c r="O36" t="n">
         <v>35.40923253378099</v>
@@ -2243,10 +2243,10 @@
         <v>7573046.699561648</v>
       </c>
       <c r="E37" t="n">
-        <v>431526.1485026075</v>
+        <v>431511.4209236115</v>
       </c>
       <c r="F37" t="n">
-        <v>7573386.838837694</v>
+        <v>7573428.066358544</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2266,13 +2266,13 @@
         <v>519.6742706485093</v>
       </c>
       <c r="L37" t="n">
-        <v>-670.094605065533</v>
+        <v>-684.8221840615151</v>
       </c>
       <c r="M37" t="n">
-        <v>340.1392760463059</v>
+        <v>381.3667968958616</v>
       </c>
       <c r="N37" t="n">
-        <v>751.4795451955015</v>
+        <v>783.8507878144877</v>
       </c>
       <c r="O37" t="n">
         <v>825.0477664764331</v>
@@ -2292,10 +2292,10 @@
         <v>7573046.699561648</v>
       </c>
       <c r="E38" t="n">
-        <v>431785.4633834092</v>
+        <v>431779.329709379</v>
       </c>
       <c r="F38" t="n">
-        <v>7572852.695936601</v>
+        <v>7572847.628083977</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -2315,13 +2315,13 @@
         <v>354.6701769813274</v>
       </c>
       <c r="L38" t="n">
-        <v>-410.7797242638189</v>
+        <v>-416.9133982940111</v>
       </c>
       <c r="M38" t="n">
-        <v>-194.0036250473931</v>
+        <v>-199.0714776711538</v>
       </c>
       <c r="N38" t="n">
-        <v>454.2877814753426</v>
+        <v>462.0024187157871</v>
       </c>
       <c r="O38" t="n">
         <v>878.9593237422193</v>
@@ -2341,10 +2341,10 @@
         <v>7573046.699561648</v>
       </c>
       <c r="E39" t="n">
-        <v>431249.4870401433</v>
+        <v>431158.7987343755</v>
       </c>
       <c r="F39" t="n">
-        <v>7572854.701875228</v>
+        <v>7572863.673730043</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2364,13 +2364,13 @@
         <v>33.49977064784616</v>
       </c>
       <c r="L39" t="n">
-        <v>-946.75606752967</v>
+        <v>-1037.444373297505</v>
       </c>
       <c r="M39" t="n">
-        <v>-191.997686419636</v>
+        <v>-183.0258316053078</v>
       </c>
       <c r="N39" t="n">
-        <v>966.0280342695743</v>
+        <v>1053.465368543963</v>
       </c>
       <c r="O39" t="n">
         <v>655.957721059259</v>
@@ -2390,7 +2390,7 @@
         <v>7573044.843771219</v>
       </c>
       <c r="E40" t="n">
-        <v>431876.7407171711</v>
+        <v>431858.5402916097</v>
       </c>
       <c r="F40" t="n">
         <v>7572931.272386885</v>
@@ -2413,13 +2413,13 @@
         <v>508.9806992188096</v>
       </c>
       <c r="L40" t="n">
-        <v>-351.4198266013409</v>
+        <v>-369.620252162742</v>
       </c>
       <c r="M40" t="n">
         <v>-113.5713843340054</v>
       </c>
       <c r="N40" t="n">
-        <v>369.3160622936117</v>
+        <v>386.6750446413517</v>
       </c>
       <c r="O40" t="n">
         <v>1256.392743841148</v>
@@ -2439,7 +2439,7 @@
         <v>7573044.843771219</v>
       </c>
       <c r="E41" t="n">
-        <v>431933.6707586688</v>
+        <v>431898.6739708744</v>
       </c>
       <c r="F41" t="n">
         <v>7572931.272386885</v>
@@ -2462,13 +2462,13 @@
         <v>508.9806992188096</v>
       </c>
       <c r="L41" t="n">
-        <v>-294.489785103593</v>
+        <v>-329.486572897993</v>
       </c>
       <c r="M41" t="n">
         <v>-113.5713843340054</v>
       </c>
       <c r="N41" t="n">
-        <v>315.6306272684936</v>
+        <v>348.5109195701145</v>
       </c>
       <c r="O41" t="n">
         <v>1256.392743841148</v>
@@ -2488,10 +2488,10 @@
         <v>7573044.843771219</v>
       </c>
       <c r="E42" t="n">
-        <v>431801.3042379804</v>
+        <v>431792.9141275974</v>
       </c>
       <c r="F42" t="n">
-        <v>7572541.701364573</v>
+        <v>7572519.559480205</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2511,13 +2511,13 @@
         <v>513.3995897192508</v>
       </c>
       <c r="L42" t="n">
-        <v>-426.8563057919964</v>
+        <v>-435.2464161750395</v>
       </c>
       <c r="M42" t="n">
-        <v>-503.1424066461623</v>
+        <v>-525.2842910140753</v>
       </c>
       <c r="N42" t="n">
-        <v>659.8170861383346</v>
+        <v>682.1752188253216</v>
       </c>
       <c r="O42" t="n">
         <v>1045.448340050612</v>
@@ -2537,10 +2537,10 @@
         <v>7573044.843771219</v>
       </c>
       <c r="E43" t="n">
-        <v>431816.8576451379</v>
+        <v>431857.0832172086</v>
       </c>
       <c r="F43" t="n">
-        <v>7572960.719459861</v>
+        <v>7572999.59409033</v>
       </c>
       <c r="G43" t="n">
         <v>4</v>
@@ -2560,13 +2560,13 @@
         <v>273.8733717191499</v>
       </c>
       <c r="L43" t="n">
-        <v>-411.302898634458</v>
+        <v>-371.0773265638272</v>
       </c>
       <c r="M43" t="n">
-        <v>-84.12431135866791</v>
+        <v>-45.24968088883907</v>
       </c>
       <c r="N43" t="n">
-        <v>419.8177868869747</v>
+        <v>373.8260503366493</v>
       </c>
       <c r="O43" t="n">
         <v>960.9726123950555</v>
@@ -2586,10 +2586,10 @@
         <v>7573005.691870436</v>
       </c>
       <c r="E44" t="n">
-        <v>431840.2358848608</v>
+        <v>431905.7139869043</v>
       </c>
       <c r="F44" t="n">
-        <v>7572927.358430244</v>
+        <v>7572908.063543864</v>
       </c>
       <c r="G44" t="n">
         <v>4</v>
@@ -2609,13 +2609,13 @@
         <v>234.7214709359687</v>
       </c>
       <c r="L44" t="n">
-        <v>-343.997396337043</v>
+        <v>-278.5192942935391</v>
       </c>
       <c r="M44" t="n">
-        <v>-78.33344019204378</v>
+        <v>-97.62832657247782</v>
       </c>
       <c r="N44" t="n">
-        <v>352.8035381610921</v>
+        <v>295.1343549014811</v>
       </c>
       <c r="O44" t="n">
         <v>908.0533939333675</v>
@@ -2635,10 +2635,10 @@
         <v>7573005.691870436</v>
       </c>
       <c r="E45" t="n">
-        <v>431825.1594992199</v>
+        <v>431857.3491630056</v>
       </c>
       <c r="F45" t="n">
-        <v>7572905.661947861</v>
+        <v>7572903.788586423</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -2658,13 +2658,13 @@
         <v>313.662485769329</v>
       </c>
       <c r="L45" t="n">
-        <v>-359.0737819779897</v>
+        <v>-326.8841181922471</v>
       </c>
       <c r="M45" t="n">
-        <v>-100.0299225747585</v>
+        <v>-101.9032840132713</v>
       </c>
       <c r="N45" t="n">
-        <v>372.7465175079294</v>
+        <v>342.3996291163476</v>
       </c>
       <c r="O45" t="n">
         <v>852.0503114849387</v>
@@ -2684,10 +2684,10 @@
         <v>7573005.691870436</v>
       </c>
       <c r="E46" t="n">
-        <v>431994.1170970219</v>
+        <v>431987.5801722341</v>
       </c>
       <c r="F46" t="n">
-        <v>7572909.383934905</v>
+        <v>7572918.640043342</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
@@ -2707,13 +2707,13 @@
         <v>234.7214709359687</v>
       </c>
       <c r="L46" t="n">
-        <v>-190.1161841759458</v>
+        <v>-196.6531089637429</v>
       </c>
       <c r="M46" t="n">
-        <v>-96.30793553125113</v>
+        <v>-87.05182709451765</v>
       </c>
       <c r="N46" t="n">
-        <v>213.1182346302488</v>
+        <v>215.0592147888565</v>
       </c>
       <c r="O46" t="n">
         <v>908.0533939333675</v>
@@ -2733,10 +2733,10 @@
         <v>7573005.691870436</v>
       </c>
       <c r="E47" t="n">
-        <v>431951.3973652251</v>
+        <v>431898.2189420242</v>
       </c>
       <c r="F47" t="n">
-        <v>7572918.703412019</v>
+        <v>7572927.645210987</v>
       </c>
       <c r="G47" t="n">
         <v>4</v>
@@ -2756,13 +2756,13 @@
         <v>234.7214709359687</v>
       </c>
       <c r="L47" t="n">
-        <v>-232.8359159727697</v>
+        <v>-286.0143391736783</v>
       </c>
       <c r="M47" t="n">
-        <v>-86.98845841735601</v>
+        <v>-78.0466594491154</v>
       </c>
       <c r="N47" t="n">
-        <v>248.5549349031452</v>
+        <v>296.4717242236131</v>
       </c>
       <c r="O47" t="n">
         <v>908.0533939333675</v>
@@ -2782,10 +2782,10 @@
         <v>7575384.195705412</v>
       </c>
       <c r="E48" t="n">
-        <v>424613.4239935625</v>
+        <v>424596.3503247572</v>
       </c>
       <c r="F48" t="n">
-        <v>7575805.215145145</v>
+        <v>7575779.834945617</v>
       </c>
       <c r="G48" t="n">
         <v>4</v>
@@ -2805,13 +2805,13 @@
         <v>-108.3453925880603</v>
       </c>
       <c r="L48" t="n">
-        <v>451.7733262648107</v>
+        <v>434.6996574595105</v>
       </c>
       <c r="M48" t="n">
-        <v>421.0194397326559</v>
+        <v>395.6392402052879</v>
       </c>
       <c r="N48" t="n">
-        <v>617.5406925516493</v>
+        <v>587.7875471508675</v>
       </c>
       <c r="O48" t="n">
         <v>226.6139816280848</v>
@@ -2831,10 +2831,10 @@
         <v>7575384.195705412</v>
       </c>
       <c r="E49" t="n">
-        <v>424754.9179050844</v>
+        <v>424796.2857010287</v>
       </c>
       <c r="F49" t="n">
-        <v>7575931.643575494</v>
+        <v>7575915.518920593</v>
       </c>
       <c r="G49" t="n">
         <v>6</v>
@@ -2854,13 +2854,13 @@
         <v>-292.6081759214091</v>
       </c>
       <c r="L49" t="n">
-        <v>593.2672377867275</v>
+        <v>634.6350337310578</v>
       </c>
       <c r="M49" t="n">
-        <v>547.4478700822219</v>
+        <v>531.323215181008</v>
       </c>
       <c r="N49" t="n">
-        <v>807.2578187225286</v>
+        <v>827.6871299163136</v>
       </c>
       <c r="O49" t="n">
         <v>555.8419657876722</v>
@@ -2880,10 +2880,10 @@
         <v>7575384.195705412</v>
       </c>
       <c r="E50" t="n">
-        <v>424658.6452822324</v>
+        <v>424683.7303044046</v>
       </c>
       <c r="F50" t="n">
-        <v>7575958.919707331</v>
+        <v>7575967.319240871</v>
       </c>
       <c r="G50" t="n">
         <v>6</v>
@@ -2903,13 +2903,13 @@
         <v>-292.6081759214091</v>
       </c>
       <c r="L50" t="n">
-        <v>496.9946149347816</v>
+        <v>522.0796371069155</v>
       </c>
       <c r="M50" t="n">
-        <v>574.7240019189194</v>
+        <v>583.1235354589298</v>
       </c>
       <c r="N50" t="n">
-        <v>759.8100589330664</v>
+        <v>782.6878081890699</v>
       </c>
       <c r="O50" t="n">
         <v>555.8419657876722</v>
@@ -2929,10 +2929,10 @@
         <v>7575993.882316552</v>
       </c>
       <c r="E51" t="n">
-        <v>424828.1746761855</v>
+        <v>424880.47741922</v>
       </c>
       <c r="F51" t="n">
-        <v>7576325.765088785</v>
+        <v>7576326.775207035</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2952,13 +2952,13 @@
         <v>329.1051555522718</v>
       </c>
       <c r="L51" t="n">
-        <v>322.0835493477061</v>
+        <v>374.3862923822599</v>
       </c>
       <c r="M51" t="n">
-        <v>331.8827722324058</v>
+        <v>332.8928904831409</v>
       </c>
       <c r="N51" t="n">
-        <v>462.4759315522087</v>
+        <v>500.9818085100051</v>
       </c>
       <c r="O51" t="n">
         <v>1188.730698850027</v>
@@ -2978,10 +2978,10 @@
         <v>7575993.882316552</v>
       </c>
       <c r="E52" t="n">
-        <v>424378.968234583</v>
+        <v>424413.7600802326</v>
       </c>
       <c r="F52" t="n">
-        <v>7576260.145779286</v>
+        <v>7576279.432661751</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3001,13 +3001,13 @@
         <v>329.1051555522718</v>
       </c>
       <c r="L52" t="n">
-        <v>-127.1228922547307</v>
+        <v>-92.33104660513345</v>
       </c>
       <c r="M52" t="n">
-        <v>266.2634627334774</v>
+        <v>285.5503451991826</v>
       </c>
       <c r="N52" t="n">
-        <v>295.053319456043</v>
+        <v>300.1066840484758</v>
       </c>
       <c r="O52" t="n">
         <v>1188.730698850027</v>
@@ -3027,10 +3027,10 @@
         <v>7575993.882316552</v>
       </c>
       <c r="E53" t="n">
-        <v>424443.4530999117</v>
+        <v>424415.9125772049</v>
       </c>
       <c r="F53" t="n">
-        <v>7576166.052176599</v>
+        <v>7576125.972644326</v>
       </c>
       <c r="G53" t="n">
         <v>5</v>
@@ -3050,13 +3050,13 @@
         <v>-111.879338647984</v>
       </c>
       <c r="L53" t="n">
-        <v>-62.63802692608442</v>
+        <v>-90.17854963289574</v>
       </c>
       <c r="M53" t="n">
-        <v>172.1698600472882</v>
+        <v>132.0903277741745</v>
       </c>
       <c r="N53" t="n">
-        <v>183.2102156701304</v>
+        <v>159.9375675236481</v>
       </c>
       <c r="O53" t="n">
         <v>822.2964947218435</v>
@@ -3076,10 +3076,10 @@
         <v>7575993.882316552</v>
       </c>
       <c r="E54" t="n">
-        <v>424692.0191688904</v>
+        <v>424731.0797887733</v>
       </c>
       <c r="F54" t="n">
-        <v>7575938.988184336</v>
+        <v>7575956.835211242</v>
       </c>
       <c r="G54" t="n">
         <v>5</v>
@@ -3099,13 +3099,13 @@
         <v>216.2474101519212</v>
       </c>
       <c r="L54" t="n">
-        <v>185.9280420526629</v>
+        <v>224.988661935553</v>
       </c>
       <c r="M54" t="n">
-        <v>-54.894132216461</v>
+        <v>-37.04710531048477</v>
       </c>
       <c r="N54" t="n">
-        <v>193.8623289175468</v>
+        <v>228.0183896343378</v>
       </c>
       <c r="O54" t="n">
         <v>418.3284046355066</v>
@@ -3125,10 +3125,10 @@
         <v>7575993.882316552</v>
       </c>
       <c r="E55" t="n">
-        <v>424616.0947956209</v>
+        <v>424648.3865423125</v>
       </c>
       <c r="F55" t="n">
-        <v>7575996.904183798</v>
+        <v>7575899.424256757</v>
       </c>
       <c r="G55" t="n">
         <v>9</v>
@@ -3148,13 +3148,13 @@
         <v>153.3048991076648</v>
       </c>
       <c r="L55" t="n">
-        <v>110.0036687831744</v>
+        <v>142.295415474684</v>
       </c>
       <c r="M55" t="n">
-        <v>3.021867246367037</v>
+        <v>-94.45805979520082</v>
       </c>
       <c r="N55" t="n">
-        <v>110.0451672151621</v>
+        <v>170.7931799732843</v>
       </c>
       <c r="O55" t="n">
         <v>809.4826938708336</v>
@@ -3174,10 +3174,10 @@
         <v>7576013.198939247</v>
       </c>
       <c r="E56" t="n">
-        <v>424589.8566068244</v>
+        <v>424663.7702119233</v>
       </c>
       <c r="F56" t="n">
-        <v>7575893.038050732</v>
+        <v>7575874.83429244</v>
       </c>
       <c r="G56" t="n">
         <v>4</v>
@@ -3197,13 +3197,13 @@
         <v>198.7108834970277</v>
       </c>
       <c r="L56" t="n">
-        <v>2.259836341952905</v>
+        <v>76.17344144079834</v>
       </c>
       <c r="M56" t="n">
-        <v>-120.1608885154128</v>
+        <v>-138.364646807313</v>
       </c>
       <c r="N56" t="n">
-        <v>120.1821367304887</v>
+        <v>157.9467273071753</v>
       </c>
       <c r="O56" t="n">
         <v>392.7611216976345</v>
@@ -3223,10 +3223,10 @@
         <v>7576013.198939247</v>
       </c>
       <c r="E57" t="n">
-        <v>424742.1266081472</v>
+        <v>424739.7302154294</v>
       </c>
       <c r="F57" t="n">
-        <v>7575953.710806352</v>
+        <v>7575944.523751879</v>
       </c>
       <c r="G57" t="n">
         <v>5</v>
@@ -3246,13 +3246,13 @@
         <v>177.9110966470093</v>
       </c>
       <c r="L57" t="n">
-        <v>154.5298376646824</v>
+        <v>152.1334449469578</v>
       </c>
       <c r="M57" t="n">
-        <v>-59.48813289497048</v>
+        <v>-68.67518736794591</v>
       </c>
       <c r="N57" t="n">
-        <v>165.5847477396477</v>
+        <v>166.9157465053896</v>
       </c>
       <c r="O57" t="n">
         <v>550.3509526026252</v>
@@ -3272,10 +3272,10 @@
         <v>7576013.198939247</v>
       </c>
       <c r="E58" t="n">
-        <v>424666.6482331427</v>
+        <v>424706.8053020792</v>
       </c>
       <c r="F58" t="n">
-        <v>7575957.455583064</v>
+        <v>7575917.306054985</v>
       </c>
       <c r="G58" t="n">
         <v>4</v>
@@ -3295,13 +3295,13 @@
         <v>198.7108834970277</v>
       </c>
       <c r="L58" t="n">
-        <v>79.05146266019437</v>
+        <v>119.2085315966979</v>
       </c>
       <c r="M58" t="n">
-        <v>-55.74335618317127</v>
+        <v>-95.89288426190615</v>
       </c>
       <c r="N58" t="n">
-        <v>96.7287729027925</v>
+        <v>152.9905855192019</v>
       </c>
       <c r="O58" t="n">
         <v>392.7611216976345</v>
@@ -3321,10 +3321,10 @@
         <v>7576013.198939247</v>
       </c>
       <c r="E59" t="n">
-        <v>424979.1393341706</v>
+        <v>425024.0066090898</v>
       </c>
       <c r="F59" t="n">
-        <v>7576192.461756739</v>
+        <v>7576160.034719548</v>
       </c>
       <c r="G59" t="n">
         <v>4</v>
@@ -3344,13 +3344,13 @@
         <v>324.0541439969093</v>
       </c>
       <c r="L59" t="n">
-        <v>391.5425636881264</v>
+        <v>436.4098386073019</v>
       </c>
       <c r="M59" t="n">
-        <v>179.2628174917772</v>
+        <v>146.8357803011313</v>
       </c>
       <c r="N59" t="n">
-        <v>430.6283048228028</v>
+        <v>460.4500989356973</v>
       </c>
       <c r="O59" t="n">
         <v>476.5339934397911</v>
@@ -3370,10 +3370,10 @@
         <v>7576013.198939247</v>
       </c>
       <c r="E60" t="n">
-        <v>424910.0779622358</v>
+        <v>424867.8195243924</v>
       </c>
       <c r="F60" t="n">
-        <v>7575897.407662994</v>
+        <v>7575872.564734256</v>
       </c>
       <c r="G60" t="n">
         <v>4</v>
@@ -3393,13 +3393,13 @@
         <v>324.0541439969093</v>
       </c>
       <c r="L60" t="n">
-        <v>322.4811917533516</v>
+        <v>280.2227539098822</v>
       </c>
       <c r="M60" t="n">
-        <v>-115.7912762528285</v>
+        <v>-140.6342049911618</v>
       </c>
       <c r="N60" t="n">
-        <v>342.6393711921045</v>
+        <v>313.5327278328922</v>
       </c>
       <c r="O60" t="n">
         <v>476.5339934397911</v>
@@ -3419,10 +3419,10 @@
         <v>7576013.198939247</v>
       </c>
       <c r="E61" t="n">
-        <v>424844.6733574927</v>
+        <v>424850.1095780422</v>
       </c>
       <c r="F61" t="n">
-        <v>7575869.85003815</v>
+        <v>7575916.351479514</v>
       </c>
       <c r="G61" t="n">
         <v>4</v>
@@ -3442,13 +3442,13 @@
         <v>324.0541439969093</v>
       </c>
       <c r="L61" t="n">
-        <v>257.076587010175</v>
+        <v>262.5128075596876</v>
       </c>
       <c r="M61" t="n">
-        <v>-143.3489010967314</v>
+        <v>-96.84745973348618</v>
       </c>
       <c r="N61" t="n">
-        <v>294.3421122341153</v>
+        <v>279.8077993725315</v>
       </c>
       <c r="O61" t="n">
         <v>476.5339934397911</v>
@@ -3468,10 +3468,10 @@
         <v>7565382.436404901</v>
       </c>
       <c r="E62" t="n">
-        <v>427295.1426468177</v>
+        <v>427286.7738879723</v>
       </c>
       <c r="F62" t="n">
-        <v>7565738.903339095</v>
+        <v>7565703.978354715</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -3491,13 +3491,13 @@
         <v>-130.0167417659735</v>
       </c>
       <c r="L62" t="n">
-        <v>-223.2357927110861</v>
+        <v>-231.604551556462</v>
       </c>
       <c r="M62" t="n">
-        <v>356.4669341947883</v>
+        <v>321.5419498141855</v>
       </c>
       <c r="N62" t="n">
-        <v>420.598257630222</v>
+        <v>396.2699758901475</v>
       </c>
       <c r="O62" t="n">
         <v>193.1288251706171</v>
@@ -3517,10 +3517,10 @@
         <v>7565382.436404901</v>
       </c>
       <c r="E63" t="n">
-        <v>427527.6177591978</v>
+        <v>427737.0461834485</v>
       </c>
       <c r="F63" t="n">
-        <v>7564764.332511443</v>
+        <v>7565169.021437536</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3540,13 +3540,13 @@
         <v>-62.16662909928709</v>
       </c>
       <c r="L63" t="n">
-        <v>9.239319669024553</v>
+        <v>218.6677439197083</v>
       </c>
       <c r="M63" t="n">
-        <v>-618.1038934579119</v>
+        <v>-213.4149673646316</v>
       </c>
       <c r="N63" t="n">
-        <v>618.1729435487905</v>
+        <v>305.5511913349085</v>
       </c>
       <c r="O63" t="n">
         <v>99.24455936577476</v>
@@ -3566,10 +3566,10 @@
         <v>7565382.436404901</v>
       </c>
       <c r="E64" t="n">
-        <v>427907.7924166163</v>
+        <v>427952.5109575025</v>
       </c>
       <c r="F64" t="n">
-        <v>7565139.412536166</v>
+        <v>7565285.763634321</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3589,13 +3589,13 @@
         <v>204.8038629004732</v>
       </c>
       <c r="L64" t="n">
-        <v>389.4139770874754</v>
+        <v>434.1325179737178</v>
       </c>
       <c r="M64" t="n">
-        <v>-243.0238687349483</v>
+        <v>-96.67277057934552</v>
       </c>
       <c r="N64" t="n">
-        <v>459.0248863906904</v>
+        <v>444.7658572031886</v>
       </c>
       <c r="O64" t="n">
         <v>304.3215034464807</v>
@@ -3615,10 +3615,10 @@
         <v>7565382.436404901</v>
       </c>
       <c r="E65" t="n">
-        <v>427405.5290003009</v>
+        <v>427379.6173360354</v>
       </c>
       <c r="F65" t="n">
-        <v>7565538.126108834</v>
+        <v>7565523.480387723</v>
       </c>
       <c r="G65" t="n">
         <v>4</v>
@@ -3638,13 +3638,13 @@
         <v>-46.31159059936181</v>
       </c>
       <c r="L65" t="n">
-        <v>-112.8494392278953</v>
+        <v>-138.7611034933943</v>
       </c>
       <c r="M65" t="n">
-        <v>155.6897039329633</v>
+        <v>141.043982822448</v>
       </c>
       <c r="N65" t="n">
-        <v>192.2869726340925</v>
+        <v>197.8586589793924</v>
       </c>
       <c r="O65" t="n">
         <v>68.76625058727349</v>
@@ -3664,10 +3664,10 @@
         <v>7565382.436404901</v>
       </c>
       <c r="E66" t="n">
-        <v>427397.5172606223</v>
+        <v>427397.4559276546</v>
       </c>
       <c r="F66" t="n">
-        <v>7565276.859971722</v>
+        <v>7565248.210962392</v>
       </c>
       <c r="G66" t="n">
         <v>4</v>
@@ -3687,13 +3687,13 @@
         <v>-46.31159059936181</v>
       </c>
       <c r="L66" t="n">
-        <v>-120.861178906518</v>
+        <v>-120.9225118742324</v>
       </c>
       <c r="M66" t="n">
-        <v>-105.5764331789687</v>
+        <v>-134.2254425082356</v>
       </c>
       <c r="N66" t="n">
-        <v>160.4799296157205</v>
+        <v>180.6619032737825</v>
       </c>
       <c r="O66" t="n">
         <v>68.76625058727349</v>
@@ -3713,10 +3713,10 @@
         <v>7565466.574663671</v>
       </c>
       <c r="E67" t="n">
-        <v>427225.6369163023</v>
+        <v>427247.8646984517</v>
       </c>
       <c r="F67" t="n">
-        <v>7565601.350627569</v>
+        <v>7565582.464604951</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3736,13 +3736,13 @@
         <v>11.21015017060563</v>
       </c>
       <c r="L67" t="n">
-        <v>-78.48602790356381</v>
+        <v>-56.25824575411389</v>
       </c>
       <c r="M67" t="n">
-        <v>134.7759638987482</v>
+        <v>115.8899412807077</v>
       </c>
       <c r="N67" t="n">
-        <v>155.9635118254128</v>
+        <v>128.8234012335343</v>
       </c>
       <c r="O67" t="n">
         <v>73.38924382563867</v>
@@ -3762,10 +3762,10 @@
         <v>7565466.574663671</v>
       </c>
       <c r="E68" t="n">
-        <v>427161.011117815</v>
+        <v>427177.3916628358</v>
       </c>
       <c r="F68" t="n">
-        <v>7565575.351861807</v>
+        <v>7565651.513782038</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3785,13 +3785,13 @@
         <v>11.21015017060563</v>
       </c>
       <c r="L68" t="n">
-        <v>-143.1118263907847</v>
+        <v>-126.7312813699828</v>
       </c>
       <c r="M68" t="n">
-        <v>108.7771981358528</v>
+        <v>184.9391183676198</v>
       </c>
       <c r="N68" t="n">
-        <v>179.7594884482949</v>
+        <v>224.1947706354237</v>
       </c>
       <c r="O68" t="n">
         <v>73.38924382563867</v>
@@ -3811,10 +3811,10 @@
         <v>7565466.574663671</v>
       </c>
       <c r="E69" t="n">
-        <v>427371.3791252788</v>
+        <v>427421.0332874779</v>
       </c>
       <c r="F69" t="n">
-        <v>7565442.968946312</v>
+        <v>7565435.880408914</v>
       </c>
       <c r="G69" t="n">
         <v>4</v>
@@ -3834,13 +3834,13 @@
         <v>37.82666817074642</v>
       </c>
       <c r="L69" t="n">
-        <v>67.25618107296759</v>
+        <v>116.9103432720294</v>
       </c>
       <c r="M69" t="n">
-        <v>-23.60571735911071</v>
+        <v>-30.69425475690514</v>
       </c>
       <c r="N69" t="n">
-        <v>71.27849454469437</v>
+        <v>120.8725181299105</v>
       </c>
       <c r="O69" t="n">
         <v>167.7427807882272</v>
@@ -3860,10 +3860,10 @@
         <v>7565466.574663671</v>
       </c>
       <c r="E70" t="n">
-        <v>427325.3245463187</v>
+        <v>427336.2342553555</v>
       </c>
       <c r="F70" t="n">
-        <v>7565529.5532309</v>
+        <v>7565486.70658153</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -3883,13 +3883,13 @@
         <v>37.82666817074642</v>
       </c>
       <c r="L70" t="n">
-        <v>21.20160211290931</v>
+        <v>32.11131114966702</v>
       </c>
       <c r="M70" t="n">
-        <v>62.97856722958386</v>
+        <v>20.13191785942763</v>
       </c>
       <c r="N70" t="n">
-        <v>66.45154522240499</v>
+        <v>37.90026939811207</v>
       </c>
       <c r="O70" t="n">
         <v>167.7427807882272</v>
@@ -3909,10 +3909,10 @@
         <v>7565466.574663671</v>
       </c>
       <c r="E71" t="n">
-        <v>427292.7028325217</v>
+        <v>427266.6900850168</v>
       </c>
       <c r="F71" t="n">
-        <v>7565626.812362558</v>
+        <v>7565675.859992431</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -3932,13 +3932,13 @@
         <v>-45.87848299586525</v>
       </c>
       <c r="L71" t="n">
-        <v>-11.42011168412864</v>
+        <v>-37.43285918899346</v>
       </c>
       <c r="M71" t="n">
-        <v>160.2376988874748</v>
+        <v>209.2853287598118</v>
       </c>
       <c r="N71" t="n">
-        <v>160.6441380680634</v>
+        <v>212.60660333387</v>
       </c>
       <c r="O71" t="n">
         <v>84.9084633962147</v>
@@ -3958,10 +3958,10 @@
         <v>7565466.574663671</v>
       </c>
       <c r="E72" t="n">
-        <v>427184.9404932184</v>
+        <v>427155.5485002345</v>
       </c>
       <c r="F72" t="n">
-        <v>7565756.013596904</v>
+        <v>7565765.215487624</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3981,13 +3981,13 @@
         <v>11.21015017060563</v>
       </c>
       <c r="L72" t="n">
-        <v>-119.1824509874568</v>
+        <v>-148.5744439713308</v>
       </c>
       <c r="M72" t="n">
-        <v>289.4389332327992</v>
+        <v>298.6408239528537</v>
       </c>
       <c r="N72" t="n">
-        <v>313.0165374134701</v>
+        <v>333.5576518873903</v>
       </c>
       <c r="O72" t="n">
         <v>73.38924382563867</v>
@@ -4007,10 +4007,10 @@
         <v>7565487.937967502</v>
       </c>
       <c r="E73" t="n">
-        <v>427162.7131143401</v>
+        <v>427178.2804585102</v>
       </c>
       <c r="F73" t="n">
-        <v>7565442.102529502</v>
+        <v>7565428.848569097</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4030,13 +4030,13 @@
         <v>32.57345400145277</v>
       </c>
       <c r="L73" t="n">
-        <v>-189.3081073752837</v>
+        <v>-173.7407632052782</v>
       </c>
       <c r="M73" t="n">
-        <v>-45.83543800003827</v>
+        <v>-59.08939840458333</v>
       </c>
       <c r="N73" t="n">
-        <v>194.7779425260142</v>
+        <v>183.5140588700717</v>
       </c>
       <c r="O73" t="n">
         <v>124.7538495061759</v>
@@ -4056,10 +4056,10 @@
         <v>7565487.937967502</v>
       </c>
       <c r="E74" t="n">
-        <v>427085.838182199</v>
+        <v>427037.2535560508</v>
       </c>
       <c r="F74" t="n">
-        <v>7565126.969259516</v>
+        <v>7565157.716941277</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4079,13 +4079,13 @@
         <v>-160.2154044983909</v>
       </c>
       <c r="L74" t="n">
-        <v>-266.1830395164434</v>
+        <v>-314.7676656646654</v>
       </c>
       <c r="M74" t="n">
-        <v>-360.9687079852447</v>
+        <v>-330.2210262250155</v>
       </c>
       <c r="N74" t="n">
-        <v>448.4995191421606</v>
+        <v>456.2067617967592</v>
       </c>
       <c r="O74" t="n">
         <v>192.8530163463931</v>
@@ -4105,10 +4105,10 @@
         <v>7565430.967301778</v>
       </c>
       <c r="E75" t="n">
-        <v>427210.8741497378</v>
+        <v>427265.4350925219</v>
       </c>
       <c r="F75" t="n">
-        <v>7566286.98277644</v>
+        <v>7566254.133908664</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4128,13 +4128,13 @@
         <v>168.3916467772797</v>
       </c>
       <c r="L75" t="n">
-        <v>-77.10436934250174</v>
+        <v>-22.54342655837536</v>
       </c>
       <c r="M75" t="n">
-        <v>856.0154746621847</v>
+        <v>823.1666068863124</v>
       </c>
       <c r="N75" t="n">
-        <v>859.4809925954328</v>
+        <v>823.4752387131732</v>
       </c>
       <c r="O75" t="n">
         <v>182.1562084009817</v>
@@ -4154,10 +4154,10 @@
         <v>7565430.967301778</v>
       </c>
       <c r="E76" t="n">
-        <v>427306.3324693734</v>
+        <v>427313.3097284288</v>
       </c>
       <c r="F76" t="n">
-        <v>7565941.791672035</v>
+        <v>7565902.294374923</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4177,13 +4177,13 @@
         <v>168.3916467772797</v>
       </c>
       <c r="L76" t="n">
-        <v>18.35395029315259</v>
+        <v>25.33120934851468</v>
       </c>
       <c r="M76" t="n">
-        <v>510.8243702575564</v>
+        <v>471.3270731456578</v>
       </c>
       <c r="N76" t="n">
-        <v>511.1539931766088</v>
+        <v>472.0072881292306</v>
       </c>
       <c r="O76" t="n">
         <v>182.1562084009817</v>
@@ -4203,10 +4203,10 @@
         <v>7565430.967301778</v>
       </c>
       <c r="E77" t="n">
-        <v>427092.9719319481</v>
+        <v>427096.4716821357</v>
       </c>
       <c r="F77" t="n">
-        <v>7565476.805874191</v>
+        <v>7565454.703851642</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -4226,13 +4226,13 @@
         <v>-24.39721172256395</v>
       </c>
       <c r="L77" t="n">
-        <v>-195.0065871321713</v>
+        <v>-191.5068369445507</v>
       </c>
       <c r="M77" t="n">
-        <v>45.83857241366059</v>
+        <v>23.73654986452311</v>
       </c>
       <c r="N77" t="n">
-        <v>200.3216007969673</v>
+        <v>192.9722580993904</v>
       </c>
       <c r="O77" t="n">
         <v>61.43560594337487</v>
@@ -4252,10 +4252,10 @@
         <v>7565430.967301778</v>
       </c>
       <c r="E78" t="n">
-        <v>427115.6371893155</v>
+        <v>427130.8802391107</v>
       </c>
       <c r="F78" t="n">
-        <v>7565250.902103012</v>
+        <v>7565417.673958854</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -4275,13 +4275,13 @@
         <v>-24.39721172256395</v>
       </c>
       <c r="L78" t="n">
-        <v>-172.3413297647494</v>
+        <v>-157.0982799695921</v>
       </c>
       <c r="M78" t="n">
-        <v>-180.0651987651363</v>
+        <v>-13.29334292374551</v>
       </c>
       <c r="N78" t="n">
-        <v>249.2488911738829</v>
+        <v>157.6597048566711</v>
       </c>
       <c r="O78" t="n">
         <v>61.43560594337487</v>
@@ -4301,10 +4301,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E79" t="n">
-        <v>427295.801115</v>
+        <v>427316.5339566979</v>
       </c>
       <c r="F79" t="n">
-        <v>7565172.696104742</v>
+        <v>7565166.642739777</v>
       </c>
       <c r="G79" t="n">
         <v>4</v>
@@ -4324,13 +4324,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L79" t="n">
-        <v>156.2478039412526</v>
+        <v>176.9806456390652</v>
       </c>
       <c r="M79" t="n">
-        <v>10.51600831095129</v>
+        <v>4.462643345817924</v>
       </c>
       <c r="N79" t="n">
-        <v>156.6012856500869</v>
+        <v>177.0369004373166</v>
       </c>
       <c r="O79" t="n">
         <v>422.6547333935085</v>
@@ -4350,10 +4350,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E80" t="n">
-        <v>427283.8487979448</v>
+        <v>427295.1531294335</v>
       </c>
       <c r="F80" t="n">
-        <v>7565209.148215422</v>
+        <v>7565199.6946286</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -4373,13 +4373,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L80" t="n">
-        <v>144.2954868859961</v>
+        <v>155.5998183746706</v>
       </c>
       <c r="M80" t="n">
-        <v>46.9681189917028</v>
+        <v>37.51453216932714</v>
       </c>
       <c r="N80" t="n">
-        <v>151.7471309029776</v>
+        <v>160.058250653048</v>
       </c>
       <c r="O80" t="n">
         <v>422.6547333935085</v>
@@ -4399,10 +4399,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E81" t="n">
-        <v>427279.0008165291</v>
+        <v>427271.0683788626</v>
       </c>
       <c r="F81" t="n">
-        <v>7565188.591122024</v>
+        <v>7565194.590185253</v>
       </c>
       <c r="G81" t="n">
         <v>4</v>
@@ -4422,13 +4422,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L81" t="n">
-        <v>139.4475054703071</v>
+        <v>131.5150678038481</v>
       </c>
       <c r="M81" t="n">
-        <v>26.41102559305727</v>
+        <v>32.4100888222456</v>
       </c>
       <c r="N81" t="n">
-        <v>141.9265621889308</v>
+        <v>135.4497209923911</v>
       </c>
       <c r="O81" t="n">
         <v>422.6547333935085</v>
@@ -4448,10 +4448,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E82" t="n">
-        <v>427274.1053692604</v>
+        <v>427268.0066453914</v>
       </c>
       <c r="F82" t="n">
-        <v>7565287.206540422</v>
+        <v>7565270.14599467</v>
       </c>
       <c r="G82" t="n">
         <v>4</v>
@@ -4471,13 +4471,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L82" t="n">
-        <v>134.5520582015743</v>
+        <v>128.4533343326184</v>
       </c>
       <c r="M82" t="n">
-        <v>125.0264439908788</v>
+        <v>107.9658982390538</v>
       </c>
       <c r="N82" t="n">
-        <v>183.6732644215923</v>
+        <v>167.8001617512127</v>
       </c>
       <c r="O82" t="n">
         <v>422.6547333935085</v>
@@ -4497,10 +4497,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E83" t="n">
-        <v>427333.8711488102</v>
+        <v>427341.6627702999</v>
       </c>
       <c r="F83" t="n">
-        <v>7565114.555758728</v>
+        <v>7565125.578382184</v>
       </c>
       <c r="G83" t="n">
         <v>4</v>
@@ -4520,13 +4520,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L83" t="n">
-        <v>194.3178377514123</v>
+        <v>202.1094592410955</v>
       </c>
       <c r="M83" t="n">
-        <v>-47.62433770298958</v>
+        <v>-36.60171424690634</v>
       </c>
       <c r="N83" t="n">
-        <v>200.0687372130703</v>
+        <v>205.396979044338</v>
       </c>
       <c r="O83" t="n">
         <v>422.6547333935085</v>
@@ -4546,10 +4546,10 @@
         <v>7573978.230192993</v>
       </c>
       <c r="E84" t="n">
-        <v>421139.3525268901</v>
+        <v>421097.6633637267</v>
       </c>
       <c r="F84" t="n">
-        <v>7574093.802090107</v>
+        <v>7574078.327980185</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4569,13 +4569,13 @@
         <v>-8.801192007027566</v>
       </c>
       <c r="L84" t="n">
-        <v>-200.3164305138635</v>
+        <v>-242.0055936772842</v>
       </c>
       <c r="M84" t="n">
-        <v>115.5718971136957</v>
+        <v>100.0977871920913</v>
       </c>
       <c r="N84" t="n">
-        <v>231.2650767761405</v>
+        <v>261.8898134174905</v>
       </c>
       <c r="O84" t="n">
         <v>210.1155508096735</v>
@@ -4595,10 +4595,10 @@
         <v>7573978.230192993</v>
       </c>
       <c r="E85" t="n">
-        <v>421195.4258546412</v>
+        <v>421300.3196481186</v>
       </c>
       <c r="F85" t="n">
-        <v>7574202.907719804</v>
+        <v>7574189.67039518</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4618,13 +4618,13 @@
         <v>-8.801192007027566</v>
       </c>
       <c r="L85" t="n">
-        <v>-144.2431027627317</v>
+        <v>-39.34930928540416</v>
       </c>
       <c r="M85" t="n">
-        <v>224.6775268111378</v>
+        <v>211.4402021868154</v>
       </c>
       <c r="N85" t="n">
-        <v>266.9945013452328</v>
+        <v>215.0705169055949</v>
       </c>
       <c r="O85" t="n">
         <v>210.1155508096735</v>
@@ -4644,10 +4644,10 @@
         <v>7573978.230192993</v>
       </c>
       <c r="E86" t="n">
-        <v>421378.1728813888</v>
+        <v>421569.1201686579</v>
       </c>
       <c r="F86" t="n">
-        <v>7574165.822891076</v>
+        <v>7574210.633745404</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4667,13 +4667,13 @@
         <v>-8.801192007027566</v>
       </c>
       <c r="L86" t="n">
-        <v>38.50392398482654</v>
+        <v>229.4512112538796</v>
       </c>
       <c r="M86" t="n">
-        <v>187.5926980832592</v>
+        <v>232.4035524111241</v>
       </c>
       <c r="N86" t="n">
-        <v>191.5034530664816</v>
+        <v>326.5873076516946</v>
       </c>
       <c r="O86" t="n">
         <v>210.1155508096735</v>
@@ -4693,10 +4693,10 @@
         <v>7573978.230192993</v>
       </c>
       <c r="E87" t="n">
-        <v>421187.9609143672</v>
+        <v>421296.1622882801</v>
       </c>
       <c r="F87" t="n">
-        <v>7574196.043384554</v>
+        <v>7574171.274329863</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4716,13 +4716,13 @@
         <v>-8.801192007027566</v>
       </c>
       <c r="L87" t="n">
-        <v>-151.7080430368078</v>
+        <v>-43.50666912388988</v>
       </c>
       <c r="M87" t="n">
-        <v>217.8131915610284</v>
+        <v>193.0441368697211</v>
       </c>
       <c r="N87" t="n">
-        <v>265.4391017541673</v>
+        <v>197.8860001062007</v>
       </c>
       <c r="O87" t="n">
         <v>210.1155508096735</v>
@@ -4742,10 +4742,10 @@
         <v>7573978.230192993</v>
       </c>
       <c r="E88" t="n">
-        <v>421374.6840832591</v>
+        <v>421554.9404667335</v>
       </c>
       <c r="F88" t="n">
-        <v>7574249.307058108</v>
+        <v>7574234.538466041</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4765,13 +4765,13 @@
         <v>-8.801192007027566</v>
       </c>
       <c r="L88" t="n">
-        <v>35.015125855105</v>
+        <v>215.2715093295556</v>
       </c>
       <c r="M88" t="n">
-        <v>271.076865115203</v>
+        <v>256.3082730481401</v>
       </c>
       <c r="N88" t="n">
-        <v>273.3289699964766</v>
+        <v>334.7174234514016</v>
       </c>
       <c r="O88" t="n">
         <v>210.1155508096735</v>
@@ -4791,10 +4791,10 @@
         <v>7573978.230192993</v>
       </c>
       <c r="E89" t="n">
-        <v>421166.8543142168</v>
+        <v>421235.980410667</v>
       </c>
       <c r="F89" t="n">
-        <v>7574135.899056925</v>
+        <v>7574075.891983813</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4814,13 +4814,13 @@
         <v>-8.801192007027566</v>
       </c>
       <c r="L89" t="n">
-        <v>-172.8146431871573</v>
+        <v>-103.6885467369575</v>
       </c>
       <c r="M89" t="n">
-        <v>157.6688639326021</v>
+        <v>97.66179081983864</v>
       </c>
       <c r="N89" t="n">
-        <v>233.9324080876822</v>
+        <v>142.4399526486868</v>
       </c>
       <c r="O89" t="n">
         <v>210.1155508096735</v>
@@ -4840,10 +4840,10 @@
         <v>7576871.896400417</v>
       </c>
       <c r="E90" t="n">
-        <v>424913.7691192748</v>
+        <v>424973.8356088734</v>
       </c>
       <c r="F90" t="n">
-        <v>7577043.081633419</v>
+        <v>7577157.568899553</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4863,13 +4863,13 @@
         <v>461.3059184169397</v>
       </c>
       <c r="L90" t="n">
-        <v>-33.33700628310908</v>
+        <v>26.72948331548832</v>
       </c>
       <c r="M90" t="n">
-        <v>171.1852330015972</v>
+        <v>285.6724991360679</v>
       </c>
       <c r="N90" t="n">
-        <v>174.4010894052305</v>
+        <v>286.9202712269729</v>
       </c>
       <c r="O90" t="n">
         <v>461.3656302132206</v>
@@ -4889,10 +4889,10 @@
         <v>7576871.896400417</v>
       </c>
       <c r="E91" t="n">
-        <v>424884.0111769313</v>
+        <v>424903.546036098</v>
       </c>
       <c r="F91" t="n">
-        <v>7577154.691781797</v>
+        <v>7577063.624470607</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4912,13 +4912,13 @@
         <v>461.3059184169397</v>
       </c>
       <c r="L91" t="n">
-        <v>-63.09494862658903</v>
+        <v>-43.5600894598756</v>
       </c>
       <c r="M91" t="n">
-        <v>282.7953813793138</v>
+        <v>191.7280701901764</v>
       </c>
       <c r="N91" t="n">
-        <v>289.7485121129416</v>
+        <v>196.6141762249141</v>
       </c>
       <c r="O91" t="n">
         <v>461.3656302132206</v>
@@ -4938,10 +4938,10 @@
         <v>7576871.896400417</v>
       </c>
       <c r="E92" t="n">
-        <v>424732.9363503986</v>
+        <v>424740.7526339105</v>
       </c>
       <c r="F92" t="n">
-        <v>7576379.843614884</v>
+        <v>7576365.839840785</v>
       </c>
       <c r="G92" t="n">
         <v>5</v>
@@ -4961,13 +4961,13 @@
         <v>704.1788030171767</v>
       </c>
       <c r="L92" t="n">
-        <v>-214.169775159331</v>
+        <v>-206.3534916474018</v>
       </c>
       <c r="M92" t="n">
-        <v>-492.0527855334803</v>
+        <v>-506.0565596325323</v>
       </c>
       <c r="N92" t="n">
-        <v>536.6420001668297</v>
+        <v>546.511669648681</v>
       </c>
       <c r="O92" t="n">
         <v>926.5222753325139</v>
@@ -4987,10 +4987,10 @@
         <v>7576871.896400417</v>
       </c>
       <c r="E93" t="n">
-        <v>424981.972811721</v>
+        <v>424996.1762359813</v>
       </c>
       <c r="F93" t="n">
-        <v>7576326.144106199</v>
+        <v>7576306.62583987</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -5010,13 +5010,13 @@
         <v>693.6228237506002</v>
       </c>
       <c r="L93" t="n">
-        <v>34.8666861630627</v>
+        <v>49.07011042337399</v>
       </c>
       <c r="M93" t="n">
-        <v>-545.7522942181677</v>
+        <v>-565.2705605467781</v>
       </c>
       <c r="N93" t="n">
-        <v>546.8649307172539</v>
+        <v>567.3964067191745</v>
       </c>
       <c r="O93" t="n">
         <v>695.4513517348389</v>
@@ -5036,10 +5036,10 @@
         <v>7564785.65884192</v>
       </c>
       <c r="E94" t="n">
-        <v>427305.1349720191</v>
+        <v>427320.8982523851</v>
       </c>
       <c r="F94" t="n">
-        <v>7564982.484544371</v>
+        <v>7564950.016181476</v>
       </c>
       <c r="G94" t="n">
         <v>4</v>
@@ -5059,13 +5059,13 @@
         <v>-643.0891535799019</v>
       </c>
       <c r="L94" t="n">
-        <v>-135.9947961110738</v>
+        <v>-120.2315157449921</v>
       </c>
       <c r="M94" t="n">
-        <v>196.8257024511695</v>
+        <v>164.357339556329</v>
       </c>
       <c r="N94" t="n">
-        <v>239.2382530338508</v>
+        <v>203.6392703885297</v>
       </c>
       <c r="O94" t="n">
         <v>643.6314367787569</v>
@@ -5085,10 +5085,10 @@
         <v>7564785.65884192</v>
       </c>
       <c r="E95" t="n">
-        <v>427439.3391517631</v>
+        <v>427479.964788034</v>
       </c>
       <c r="F95" t="n">
-        <v>7565051.052361883</v>
+        <v>7565043.823191728</v>
       </c>
       <c r="G95" t="n">
         <v>4</v>
@@ -5108,13 +5108,13 @@
         <v>-643.0891535799019</v>
       </c>
       <c r="L95" t="n">
-        <v>-1.79061636707047</v>
+        <v>38.83501990389777</v>
       </c>
       <c r="M95" t="n">
-        <v>265.3935199631378</v>
+        <v>258.1643498074263</v>
       </c>
       <c r="N95" t="n">
-        <v>265.3995605599196</v>
+        <v>261.0689377969492</v>
       </c>
       <c r="O95" t="n">
         <v>643.6314367787569</v>
@@ -5134,10 +5134,10 @@
         <v>7564785.65884192</v>
       </c>
       <c r="E96" t="n">
-        <v>427375.1932287274</v>
+        <v>427394.0126632836</v>
       </c>
       <c r="F96" t="n">
-        <v>7565022.631314043</v>
+        <v>7565010.147567177</v>
       </c>
       <c r="G96" t="n">
         <v>4</v>
@@ -5157,13 +5157,13 @@
         <v>-643.0891535799019</v>
       </c>
       <c r="L96" t="n">
-        <v>-65.93653940269724</v>
+        <v>-47.11710484657669</v>
       </c>
       <c r="M96" t="n">
-        <v>236.9724721228704</v>
+        <v>224.4887252571061</v>
       </c>
       <c r="N96" t="n">
-        <v>245.974754339603</v>
+        <v>229.3800543567025</v>
       </c>
       <c r="O96" t="n">
         <v>643.6314367787569</v>
@@ -5183,10 +5183,10 @@
         <v>7564785.65884192</v>
       </c>
       <c r="E97" t="n">
-        <v>427398.2855141729</v>
+        <v>427403.675063376</v>
       </c>
       <c r="F97" t="n">
-        <v>7565497.267024417</v>
+        <v>7565438.104180414</v>
       </c>
       <c r="G97" t="n">
         <v>4</v>
@@ -5206,13 +5206,13 @@
         <v>-643.0891535799019</v>
       </c>
       <c r="L97" t="n">
-        <v>-42.84425395727158</v>
+        <v>-37.45470475411275</v>
       </c>
       <c r="M97" t="n">
-        <v>711.6081824973226</v>
+        <v>652.4453384941444</v>
       </c>
       <c r="N97" t="n">
-        <v>712.8967916145351</v>
+        <v>653.519528882616</v>
       </c>
       <c r="O97" t="n">
         <v>643.6314367787569</v>
@@ -5232,10 +5232,10 @@
         <v>7564785.65884192</v>
       </c>
       <c r="E98" t="n">
-        <v>427481.300069905</v>
+        <v>427490.9161546608</v>
       </c>
       <c r="F98" t="n">
-        <v>7566009.418055207</v>
+        <v>7565992.329044551</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5255,13 +5255,13 @@
         <v>-840.9715710794553</v>
       </c>
       <c r="L98" t="n">
-        <v>40.17030177486595</v>
+        <v>49.78638653061353</v>
       </c>
       <c r="M98" t="n">
-        <v>1223.759213287383</v>
+        <v>1206.670202630572</v>
       </c>
       <c r="N98" t="n">
-        <v>1224.418337518039</v>
+        <v>1207.696842009733</v>
       </c>
       <c r="O98" t="n">
         <v>869.8793098530427</v>
@@ -5281,10 +5281,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E99" t="n">
-        <v>427600.0826197519</v>
+        <v>427646.7133390649</v>
       </c>
       <c r="F99" t="n">
-        <v>7564913.947057687</v>
+        <v>7564880.533854222</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -5304,13 +5304,13 @@
         <v>-771.6142980405129</v>
       </c>
       <c r="L99" t="n">
-        <v>219.7540843344759</v>
+        <v>266.3848036474083</v>
       </c>
       <c r="M99" t="n">
-        <v>283.4298782274127</v>
+        <v>250.0166747625917</v>
       </c>
       <c r="N99" t="n">
-        <v>358.6423754294659</v>
+        <v>365.3343691382071</v>
       </c>
       <c r="O99" t="n">
         <v>836.555615798977</v>
@@ -5330,10 +5330,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E100" t="n">
-        <v>427322.8149799997</v>
+        <v>427366.2030669031</v>
       </c>
       <c r="F100" t="n">
-        <v>7564899.38480073</v>
+        <v>7564845.46250308</v>
       </c>
       <c r="G100" t="n">
         <v>4</v>
@@ -5353,13 +5353,13 @@
         <v>-798.2308160406537</v>
       </c>
       <c r="L100" t="n">
-        <v>-57.51355541771045</v>
+        <v>-14.12546851433581</v>
       </c>
       <c r="M100" t="n">
-        <v>268.8676212709397</v>
+        <v>214.9453236209229</v>
       </c>
       <c r="N100" t="n">
-        <v>274.9501897156638</v>
+        <v>215.4089622259314</v>
       </c>
       <c r="O100" t="n">
         <v>802.9814167025017</v>
@@ -5379,10 +5379,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E101" t="n">
-        <v>427404.3992154081</v>
+        <v>427431.0492603834</v>
       </c>
       <c r="F101" t="n">
-        <v>7564950.725231156</v>
+        <v>7564940.516084933</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -5402,13 +5402,13 @@
         <v>-853.6215962072214</v>
       </c>
       <c r="L101" t="n">
-        <v>24.07067999069113</v>
+        <v>50.72072496596957</v>
       </c>
       <c r="M101" t="n">
-        <v>320.2080516964197</v>
+        <v>309.9989054733887</v>
       </c>
       <c r="N101" t="n">
-        <v>321.1114977798697</v>
+        <v>314.1208578489695</v>
       </c>
       <c r="O101" t="n">
         <v>870.4291269391435</v>
@@ -5428,10 +5428,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E102" t="n">
-        <v>427309.5402118434</v>
+        <v>427340.6362911618</v>
       </c>
       <c r="F102" t="n">
-        <v>7564906.93008402</v>
+        <v>7564876.761796204</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -5451,13 +5451,13 @@
         <v>-782.3757775407284</v>
       </c>
       <c r="L102" t="n">
-        <v>-70.78832357400097</v>
+        <v>-39.69224425568245</v>
       </c>
       <c r="M102" t="n">
-        <v>276.4129045605659</v>
+        <v>246.2446167450398</v>
       </c>
       <c r="N102" t="n">
-        <v>285.333279801053</v>
+        <v>249.4231054452741</v>
       </c>
       <c r="O102" t="n">
         <v>790.6008364352165</v>
@@ -5477,10 +5477,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E103" t="n">
-        <v>427304.9031338952</v>
+        <v>427311.7892684813</v>
       </c>
       <c r="F103" t="n">
-        <v>7564811.176204368</v>
+        <v>7564851.743994155</v>
       </c>
       <c r="G103" t="n">
         <v>4</v>
@@ -5500,13 +5500,13 @@
         <v>-798.2308160406537</v>
       </c>
       <c r="L103" t="n">
-        <v>-75.42540152225411</v>
+        <v>-68.53926693618996</v>
       </c>
       <c r="M103" t="n">
-        <v>180.6590249091387</v>
+        <v>221.2268146956339</v>
       </c>
       <c r="N103" t="n">
-        <v>195.7719961483614</v>
+        <v>231.6008088339215</v>
       </c>
       <c r="O103" t="n">
         <v>802.9814167025017</v>
@@ -5526,10 +5526,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E104" t="n">
-        <v>427211.5594671466</v>
+        <v>427244.8073919991</v>
       </c>
       <c r="F104" t="n">
-        <v>7564835.08904558</v>
+        <v>7564803.001576502</v>
       </c>
       <c r="G104" t="n">
         <v>3</v>
@@ -5549,13 +5549,13 @@
         <v>-732.2700102074692</v>
       </c>
       <c r="L104" t="n">
-        <v>-168.7690682708053</v>
+        <v>-135.5211434183875</v>
       </c>
       <c r="M104" t="n">
-        <v>204.5718661211431</v>
+        <v>172.4843970425427</v>
       </c>
       <c r="N104" t="n">
-        <v>265.2030294195046</v>
+        <v>219.3555277091432</v>
       </c>
       <c r="O104" t="n">
         <v>732.5971785410549</v>
@@ -5575,10 +5575,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E105" t="n">
-        <v>427380.4886160197</v>
+        <v>427441.7225998396</v>
       </c>
       <c r="F105" t="n">
-        <v>7564780.82015831</v>
+        <v>7564710.098580934</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -5598,13 +5598,13 @@
         <v>-725.0956905406589</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1600806022179313</v>
+        <v>61.39406442211475</v>
       </c>
       <c r="M105" t="n">
-        <v>150.3029788509011</v>
+        <v>79.58140147477388</v>
       </c>
       <c r="N105" t="n">
-        <v>150.3030640980204</v>
+        <v>100.5108482053351</v>
       </c>
       <c r="O105" t="n">
         <v>742.8648385227489</v>
@@ -5624,10 +5624,10 @@
         <v>7564956.741413437</v>
       </c>
       <c r="E106" t="n">
-        <v>427365.7145842424</v>
+        <v>427395.0410634181</v>
       </c>
       <c r="F106" t="n">
-        <v>7565038.671037763</v>
+        <v>7565018.111049324</v>
       </c>
       <c r="G106" t="n">
         <v>4</v>
@@ -5647,13 +5647,13 @@
         <v>-472.0065820631571</v>
       </c>
       <c r="L106" t="n">
-        <v>-184.6555447646533</v>
+        <v>-155.3290655889432</v>
       </c>
       <c r="M106" t="n">
-        <v>81.92962432652712</v>
+        <v>61.36963588744402</v>
       </c>
       <c r="N106" t="n">
-        <v>202.0151814953934</v>
+        <v>167.0130259162191</v>
       </c>
       <c r="O106" t="n">
         <v>479.21832990863</v>
@@ -5673,10 +5673,10 @@
         <v>7564956.741413437</v>
       </c>
       <c r="E107" t="n">
-        <v>427406.2193635664</v>
+        <v>427417.8734444711</v>
       </c>
       <c r="F107" t="n">
-        <v>7565135.950555851</v>
+        <v>7565132.866910969</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -5696,13 +5696,13 @@
         <v>-527.3973622297248</v>
       </c>
       <c r="L107" t="n">
-        <v>-144.1507654406014</v>
+        <v>-132.4966845359304</v>
       </c>
       <c r="M107" t="n">
-        <v>179.2091424139217</v>
+        <v>176.1254975320771</v>
       </c>
       <c r="N107" t="n">
-        <v>229.9899126088893</v>
+        <v>220.3986440383324</v>
       </c>
       <c r="O107" t="n">
         <v>527.3973946174215</v>
@@ -5722,10 +5722,10 @@
         <v>7576592.429458106</v>
       </c>
       <c r="E108" t="n">
-        <v>425177.6114436597</v>
+        <v>425243.5259050755</v>
       </c>
       <c r="F108" t="n">
-        <v>7576778.727211195</v>
+        <v>7576741.593070936</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5745,13 +5745,13 @@
         <v>-711.9979468937963</v>
       </c>
       <c r="L108" t="n">
-        <v>-246.0628126961528</v>
+        <v>-180.1483512803679</v>
       </c>
       <c r="M108" t="n">
-        <v>186.2977530891076</v>
+        <v>149.1636128304526</v>
       </c>
       <c r="N108" t="n">
-        <v>308.6320796644316</v>
+        <v>233.8871776341491</v>
       </c>
       <c r="O108" t="n">
         <v>737.6384903303916</v>
@@ -5771,10 +5771,10 @@
         <v>7576592.429458106</v>
       </c>
       <c r="E109" t="n">
-        <v>425094.1195964096</v>
+        <v>425103.9664053358</v>
       </c>
       <c r="F109" t="n">
-        <v>7576714.319016005</v>
+        <v>7576708.427186834</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5794,13 +5794,13 @@
         <v>-711.9979468937963</v>
       </c>
       <c r="L109" t="n">
-        <v>-329.5546599462396</v>
+        <v>-319.7078510200372</v>
       </c>
       <c r="M109" t="n">
-        <v>121.8895578989759</v>
+        <v>115.9977287277579</v>
       </c>
       <c r="N109" t="n">
-        <v>351.3735024401945</v>
+        <v>340.1008425068201</v>
       </c>
       <c r="O109" t="n">
         <v>737.6384903303916</v>
@@ -5820,10 +5820,10 @@
         <v>7576592.429458106</v>
       </c>
       <c r="E110" t="n">
-        <v>425078.7652714748</v>
+        <v>425111.8433981193</v>
       </c>
       <c r="F110" t="n">
-        <v>7576794.68465566</v>
+        <v>7576748.313176725</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5843,13 +5843,13 @@
         <v>-711.9979468937963</v>
       </c>
       <c r="L110" t="n">
-        <v>-344.9089848810108</v>
+        <v>-311.830858236528</v>
       </c>
       <c r="M110" t="n">
-        <v>202.2551975538954</v>
+        <v>155.8837186191231</v>
       </c>
       <c r="N110" t="n">
-        <v>399.8366826458206</v>
+        <v>348.6233180368972</v>
       </c>
       <c r="O110" t="n">
         <v>737.6384903303916</v>
@@ -5869,10 +5869,10 @@
         <v>7576592.429458106</v>
       </c>
       <c r="E111" t="n">
-        <v>425036.318550012</v>
+        <v>425068.3482431425</v>
       </c>
       <c r="F111" t="n">
-        <v>7576879.85986491</v>
+        <v>7576861.264450644</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5892,13 +5892,13 @@
         <v>-711.9979468937963</v>
       </c>
       <c r="L111" t="n">
-        <v>-387.355706343893</v>
+        <v>-355.3260132133728</v>
       </c>
       <c r="M111" t="n">
-        <v>287.4304068041965</v>
+        <v>268.8349925382063</v>
       </c>
       <c r="N111" t="n">
-        <v>482.3491287364394</v>
+        <v>445.5657402439368</v>
       </c>
       <c r="O111" t="n">
         <v>737.6384903303916</v>
@@ -5918,10 +5918,10 @@
         <v>7577108.920317246</v>
       </c>
       <c r="E112" t="n">
-        <v>424492.6836609287</v>
+        <v>424483.3269501781</v>
       </c>
       <c r="F112" t="n">
-        <v>7576334.432769832</v>
+        <v>7576307.307641825</v>
       </c>
       <c r="G112" t="n">
         <v>5</v>
@@ -5941,13 +5941,13 @@
         <v>1144.402715245634</v>
       </c>
       <c r="L112" t="n">
-        <v>-320.2565068867407</v>
+        <v>-329.6132176373503</v>
       </c>
       <c r="M112" t="n">
-        <v>-774.487547413446</v>
+        <v>-801.6126754209399</v>
       </c>
       <c r="N112" t="n">
-        <v>838.0902047523236</v>
+        <v>866.73395839598</v>
       </c>
       <c r="O112" t="n">
         <v>1382.186005655246</v>
@@ -5967,10 +5967,10 @@
         <v>7577108.920317246</v>
       </c>
       <c r="E113" t="n">
-        <v>424591.6602799007</v>
+        <v>424569.0694145396</v>
       </c>
       <c r="F113" t="n">
-        <v>7576400.736195466</v>
+        <v>7576445.994400968</v>
       </c>
       <c r="G113" t="n">
         <v>6</v>
@@ -5990,13 +5990,13 @@
         <v>1068.512310245695</v>
       </c>
       <c r="L113" t="n">
-        <v>-221.279887914774</v>
+        <v>-243.870753275929</v>
       </c>
       <c r="M113" t="n">
-        <v>-708.1841217791662</v>
+        <v>-662.9259162778035</v>
       </c>
       <c r="N113" t="n">
-        <v>741.9498225188169</v>
+        <v>706.3594798515373</v>
       </c>
       <c r="O113" t="n">
         <v>1387.13526772572</v>
@@ -6016,10 +6016,10 @@
         <v>7577108.920317246</v>
       </c>
       <c r="E114" t="n">
-        <v>424360.6089464218</v>
+        <v>424382.2677954214</v>
       </c>
       <c r="F114" t="n">
-        <v>7576525.16389443</v>
+        <v>7576565.560952072</v>
       </c>
       <c r="G114" t="n">
         <v>5</v>
@@ -6039,13 +6039,13 @@
         <v>824.3912774456664</v>
       </c>
       <c r="L114" t="n">
-        <v>-452.331221393717</v>
+        <v>-430.672372394125</v>
       </c>
       <c r="M114" t="n">
-        <v>-583.7564228158444</v>
+        <v>-543.3593651736155</v>
       </c>
       <c r="N114" t="n">
-        <v>738.4951557229625</v>
+        <v>693.3383676571334</v>
       </c>
       <c r="O114" t="n">
         <v>1345.41517708645</v>
@@ -6065,10 +6065,10 @@
         <v>7577108.920317246</v>
       </c>
       <c r="E115" t="n">
-        <v>424412.8411962919</v>
+        <v>424459.7664098263</v>
       </c>
       <c r="F115" t="n">
-        <v>7576357.522354267</v>
+        <v>7576393.965981117</v>
       </c>
       <c r="G115" t="n">
         <v>7</v>
@@ -6088,13 +6088,13 @@
         <v>1158.41812096004</v>
       </c>
       <c r="L115" t="n">
-        <v>-400.0989715235773</v>
+        <v>-353.1737579891924</v>
       </c>
       <c r="M115" t="n">
-        <v>-751.397962979041</v>
+        <v>-714.9543361291289</v>
       </c>
       <c r="N115" t="n">
-        <v>851.2802627708907</v>
+        <v>797.4279942929344</v>
       </c>
       <c r="O115" t="n">
         <v>1505.535551042128</v>
@@ -6114,10 +6114,10 @@
         <v>7576405.5815273</v>
       </c>
       <c r="E116" t="n">
-        <v>424126.5310421119</v>
+        <v>424133.0157970945</v>
       </c>
       <c r="F116" t="n">
-        <v>7576088.196435337</v>
+        <v>7576044.608017117</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6137,13 +6137,13 @@
         <v>273.9861762998626</v>
       </c>
       <c r="L116" t="n">
-        <v>-339.0720775086083</v>
+        <v>-332.5873225259711</v>
       </c>
       <c r="M116" t="n">
-        <v>-317.3850919632241</v>
+        <v>-360.973510183394</v>
       </c>
       <c r="N116" t="n">
-        <v>464.4385538976151</v>
+        <v>490.8321527356528</v>
       </c>
       <c r="O116" t="n">
         <v>731.7073717843109</v>
@@ -6163,10 +6163,10 @@
         <v>7576405.5815273</v>
       </c>
       <c r="E117" t="n">
-        <v>424492.9853269347</v>
+        <v>424506.318580202</v>
       </c>
       <c r="F117" t="n">
-        <v>7576480.769352338</v>
+        <v>7576446.626562365</v>
       </c>
       <c r="G117" t="n">
         <v>8</v>
@@ -6186,13 +6186,13 @@
         <v>432.4426866752328</v>
       </c>
       <c r="L117" t="n">
-        <v>27.38220731419278</v>
+        <v>40.71546058153035</v>
       </c>
       <c r="M117" t="n">
-        <v>75.1878250380978</v>
+        <v>41.04503506515175</v>
       </c>
       <c r="N117" t="n">
-        <v>80.01871225755285</v>
+        <v>57.81387060096988</v>
       </c>
       <c r="O117" t="n">
         <v>757.8046054740696</v>
@@ -6212,10 +6212,10 @@
         <v>7576405.5815273</v>
       </c>
       <c r="E118" t="n">
-        <v>424177.5274243455</v>
+        <v>424195.1949837733</v>
       </c>
       <c r="F118" t="n">
-        <v>7576291.640428354</v>
+        <v>7576328.39486516</v>
       </c>
       <c r="G118" t="n">
         <v>6</v>
@@ -6235,13 +6235,13 @@
         <v>462.1014478001744</v>
       </c>
       <c r="L118" t="n">
-        <v>-288.0756952749798</v>
+        <v>-270.4081358471303</v>
       </c>
       <c r="M118" t="n">
-        <v>-113.9410989461467</v>
+        <v>-77.18666214030236</v>
       </c>
       <c r="N118" t="n">
-        <v>309.7905425238456</v>
+        <v>281.2087138491289</v>
       </c>
       <c r="O118" t="n">
         <v>1116.76538578052</v>
@@ -6261,10 +6261,10 @@
         <v>7574201.159492696</v>
       </c>
       <c r="E119" t="n">
-        <v>422520.7788425374</v>
+        <v>422504.3091788088</v>
       </c>
       <c r="F119" t="n">
-        <v>7574771.87994467</v>
+        <v>7574702.331342939</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -6284,13 +6284,13 @@
         <v>-629.3176773041487</v>
       </c>
       <c r="L119" t="n">
-        <v>354.1415521789459</v>
+        <v>337.6718884503935</v>
       </c>
       <c r="M119" t="n">
-        <v>570.72045197431</v>
+        <v>501.1718502435833</v>
       </c>
       <c r="N119" t="n">
-        <v>671.6681273378049</v>
+        <v>604.3140969117233</v>
       </c>
       <c r="O119" t="n">
         <v>642.3448153729219</v>
@@ -6310,10 +6310,10 @@
         <v>7574201.159492696</v>
       </c>
       <c r="E120" t="n">
-        <v>422547.8148580713</v>
+        <v>422527.6481336852</v>
       </c>
       <c r="F120" t="n">
-        <v>7574928.717067143</v>
+        <v>7574704.703786268</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -6333,13 +6333,13 @@
         <v>-629.3176773041487</v>
       </c>
       <c r="L120" t="n">
-        <v>381.1775677128462</v>
+        <v>361.0108433268033</v>
       </c>
       <c r="M120" t="n">
-        <v>727.5575744472444</v>
+        <v>503.5442935721949</v>
       </c>
       <c r="N120" t="n">
-        <v>821.3625035652888</v>
+        <v>619.5850906765353</v>
       </c>
       <c r="O120" t="n">
         <v>642.3448153729219</v>
@@ -6359,10 +6359,10 @@
         <v>7574201.159492696</v>
       </c>
       <c r="E121" t="n">
-        <v>421916.1238162286</v>
+        <v>421978.0364633965</v>
       </c>
       <c r="F121" t="n">
-        <v>7573955.782142854</v>
+        <v>7573924.240199912</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6382,13 +6382,13 @@
         <v>214.1281076958403</v>
       </c>
       <c r="L121" t="n">
-        <v>-250.5134741297807</v>
+        <v>-188.6008269619197</v>
       </c>
       <c r="M121" t="n">
-        <v>-245.3773498414084</v>
+        <v>-276.9192927833647</v>
       </c>
       <c r="N121" t="n">
-        <v>350.6665717398298</v>
+        <v>335.0441264167435</v>
       </c>
       <c r="O121" t="n">
         <v>1058.778241350072</v>
@@ -6408,10 +6408,10 @@
         <v>7574201.159492696</v>
       </c>
       <c r="E122" t="n">
-        <v>421744.3445151785</v>
+        <v>421746.1056021022</v>
       </c>
       <c r="F122" t="n">
-        <v>7573942.589967616</v>
+        <v>7573908.265618173</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6431,13 +6431,13 @@
         <v>214.1281076958403</v>
       </c>
       <c r="L122" t="n">
-        <v>-422.292775179958</v>
+        <v>-420.5316882561892</v>
       </c>
       <c r="M122" t="n">
-        <v>-258.5695250798017</v>
+        <v>-292.8938745222986</v>
       </c>
       <c r="N122" t="n">
-        <v>495.166019905632</v>
+        <v>512.4780215387628</v>
       </c>
       <c r="O122" t="n">
         <v>1058.778241350072</v>
@@ -6457,10 +6457,10 @@
         <v>7574350.91491873</v>
       </c>
       <c r="E123" t="n">
-        <v>421913.9592032503</v>
+        <v>421881.7514240461</v>
       </c>
       <c r="F123" t="n">
-        <v>7574039.959499368</v>
+        <v>7573985.101149481</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6480,13 +6480,13 @@
         <v>363.8835337301716</v>
       </c>
       <c r="L123" t="n">
-        <v>-47.24527545802994</v>
+        <v>-79.4530546622118</v>
       </c>
       <c r="M123" t="n">
-        <v>-310.9554193615913</v>
+        <v>-365.8137692492455</v>
       </c>
       <c r="N123" t="n">
-        <v>314.5240672563044</v>
+        <v>374.3427596034103</v>
       </c>
       <c r="O123" t="n">
         <v>907.6056608749877</v>
@@ -6506,10 +6506,10 @@
         <v>7574350.91491873</v>
       </c>
       <c r="E124" t="n">
-        <v>421870.9219088442</v>
+        <v>421779.9219485241</v>
       </c>
       <c r="F124" t="n">
-        <v>7573964.522892836</v>
+        <v>7573882.66865085</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6529,13 +6529,13 @@
         <v>363.8835337301716</v>
       </c>
       <c r="L124" t="n">
-        <v>-90.28256986412453</v>
+        <v>-181.2825301842531</v>
       </c>
       <c r="M124" t="n">
-        <v>-386.3920258944854</v>
+        <v>-468.2462678803131</v>
       </c>
       <c r="N124" t="n">
-        <v>396.7993700802903</v>
+        <v>502.1134564357408</v>
       </c>
       <c r="O124" t="n">
         <v>907.6056608749877</v>
@@ -6555,10 +6555,10 @@
         <v>7574350.91491873</v>
       </c>
       <c r="E125" t="n">
-        <v>421910.7335587667</v>
+        <v>421860.9524362999</v>
       </c>
       <c r="F125" t="n">
-        <v>7573978.923715535</v>
+        <v>7573957.570687276</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6578,13 +6578,13 @@
         <v>363.8835337301716</v>
       </c>
       <c r="L125" t="n">
-        <v>-50.4709199416684</v>
+        <v>-100.2520424084505</v>
       </c>
       <c r="M125" t="n">
-        <v>-371.9912031954154</v>
+        <v>-393.3442314537242</v>
       </c>
       <c r="N125" t="n">
-        <v>375.3994792411561</v>
+        <v>405.9189037541695</v>
       </c>
       <c r="O125" t="n">
         <v>907.6056608749877</v>
@@ -6604,10 +6604,10 @@
         <v>7574350.91491873</v>
       </c>
       <c r="E126" t="n">
-        <v>421919.3041862089</v>
+        <v>421890.3963524419</v>
       </c>
       <c r="F126" t="n">
-        <v>7573963.34127747</v>
+        <v>7573897.537000211</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6627,13 +6627,13 @@
         <v>363.8835337301716</v>
       </c>
       <c r="L126" t="n">
-        <v>-41.90029249945655</v>
+        <v>-70.80812626646366</v>
       </c>
       <c r="M126" t="n">
-        <v>-387.5736412601545</v>
+        <v>-453.3779185190797</v>
       </c>
       <c r="N126" t="n">
-        <v>389.8319662510951</v>
+        <v>458.8739780659399</v>
       </c>
       <c r="O126" t="n">
         <v>907.6056608749877</v>
@@ -6653,10 +6653,10 @@
         <v>7574350.91491873</v>
       </c>
       <c r="E127" t="n">
-        <v>421893.8497797034</v>
+        <v>421998.6679347473</v>
       </c>
       <c r="F127" t="n">
-        <v>7573971.777611476</v>
+        <v>7573991.573299359</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6676,13 +6676,13 @@
         <v>363.8835337301716</v>
       </c>
       <c r="L127" t="n">
-        <v>-67.35469900496537</v>
+        <v>37.46345603896771</v>
       </c>
       <c r="M127" t="n">
-        <v>-379.1373072536662</v>
+        <v>-359.3416193714365</v>
       </c>
       <c r="N127" t="n">
-        <v>385.0736984391564</v>
+        <v>361.2892330956875</v>
       </c>
       <c r="O127" t="n">
         <v>907.6056608749877</v>
@@ -6702,10 +6702,10 @@
         <v>7573873.936439337</v>
       </c>
       <c r="E128" t="n">
-        <v>422166.7503720289</v>
+        <v>422278.3824196028</v>
       </c>
       <c r="F128" t="n">
-        <v>7574080.599058609</v>
+        <v>7574117.238957332</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6725,13 +6725,13 @@
         <v>-113.0949456626549</v>
       </c>
       <c r="L128" t="n">
-        <v>316.6948388250312</v>
+        <v>428.3268863990088</v>
       </c>
       <c r="M128" t="n">
-        <v>206.6626192713156</v>
+        <v>243.302517994307</v>
       </c>
       <c r="N128" t="n">
-        <v>378.1600972372591</v>
+        <v>492.6053561164753</v>
       </c>
       <c r="O128" t="n">
         <v>729.1420156673895</v>
@@ -6751,10 +6751,10 @@
         <v>7573873.936439337</v>
       </c>
       <c r="E129" t="n">
-        <v>422005.6187568088</v>
+        <v>422070.8170096445</v>
       </c>
       <c r="F129" t="n">
-        <v>7573943.224545555</v>
+        <v>7573901.1347715</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6774,13 +6774,13 @@
         <v>-113.0949456626549</v>
       </c>
       <c r="L129" t="n">
-        <v>155.563223604986</v>
+        <v>220.7614764406462</v>
       </c>
       <c r="M129" t="n">
-        <v>69.28810621798038</v>
+        <v>27.19833216257393</v>
       </c>
       <c r="N129" t="n">
-        <v>170.2960898014074</v>
+        <v>222.4306155920981</v>
       </c>
       <c r="O129" t="n">
         <v>729.1420156673895</v>
@@ -6800,10 +6800,10 @@
         <v>7573873.936439337</v>
       </c>
       <c r="E130" t="n">
-        <v>421735.0962389638</v>
+        <v>421473.1783677655</v>
       </c>
       <c r="F130" t="n">
-        <v>7573987.239279528</v>
+        <v>7573855.332050844</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6823,13 +6823,13 @@
         <v>-113.0949456626549</v>
       </c>
       <c r="L130" t="n">
-        <v>-114.9592942400486</v>
+        <v>-376.8771654383163</v>
       </c>
       <c r="M130" t="n">
-        <v>113.3028401909396</v>
+        <v>-18.60438849311322</v>
       </c>
       <c r="N130" t="n">
-        <v>161.4099530001285</v>
+        <v>377.3360850753911</v>
       </c>
       <c r="O130" t="n">
         <v>729.1420156673895</v>
@@ -6849,10 +6849,10 @@
         <v>7573873.936439337</v>
       </c>
       <c r="E131" t="n">
-        <v>422028.4604491339</v>
+        <v>422025.8588221836</v>
       </c>
       <c r="F131" t="n">
-        <v>7573987.725311409</v>
+        <v>7573984.712406743</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6872,13 +6872,13 @@
         <v>-113.0949456626549</v>
       </c>
       <c r="L131" t="n">
-        <v>178.404915930063</v>
+        <v>175.8032889797469</v>
       </c>
       <c r="M131" t="n">
-        <v>113.7888720715418</v>
+        <v>110.775967406109</v>
       </c>
       <c r="N131" t="n">
-        <v>211.603925850459</v>
+        <v>207.7934343786052</v>
       </c>
       <c r="O131" t="n">
         <v>729.1420156673895</v>
@@ -6898,10 +6898,10 @@
         <v>7573873.936439337</v>
       </c>
       <c r="E132" t="n">
-        <v>422100.3410861324</v>
+        <v>422094.7073657828</v>
       </c>
       <c r="F132" t="n">
-        <v>7574081.910987115</v>
+        <v>7574082.518260886</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6921,13 +6921,13 @@
         <v>-113.0949456626549</v>
       </c>
       <c r="L132" t="n">
-        <v>250.2855529285735</v>
+        <v>244.6518325789948</v>
       </c>
       <c r="M132" t="n">
-        <v>207.9745477773249</v>
+        <v>208.5818215487525</v>
       </c>
       <c r="N132" t="n">
-        <v>325.4170716602688</v>
+        <v>321.4978934065605</v>
       </c>
       <c r="O132" t="n">
         <v>729.1420156673895</v>
@@ -6947,10 +6947,10 @@
         <v>7573873.936439337</v>
       </c>
       <c r="E133" t="n">
-        <v>422127.6067733009</v>
+        <v>422136.2641704845</v>
       </c>
       <c r="F133" t="n">
-        <v>7573991.212064411</v>
+        <v>7573972.389170148</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6970,13 +6970,13 @@
         <v>-113.0949456626549</v>
       </c>
       <c r="L133" t="n">
-        <v>277.5512400970911</v>
+        <v>286.2086372806807</v>
       </c>
       <c r="M133" t="n">
-        <v>117.2756250742823</v>
+        <v>98.45273081120104</v>
       </c>
       <c r="N133" t="n">
-        <v>301.3109077282081</v>
+        <v>302.6686707577232</v>
       </c>
       <c r="O133" t="n">
         <v>729.1420156673895</v>
@@ -6996,10 +6996,10 @@
         <v>7565154.566545373</v>
       </c>
       <c r="E134" t="n">
-        <v>427266.9030619143</v>
+        <v>427277.933090812</v>
       </c>
       <c r="F134" t="n">
-        <v>7565168.033131673</v>
+        <v>7565186.873486859</v>
       </c>
       <c r="G134" t="n">
         <v>4</v>
@@ -7019,13 +7019,13 @@
         <v>-274.1814501271583</v>
       </c>
       <c r="L134" t="n">
-        <v>265.728089094453</v>
+        <v>276.7581179921981</v>
       </c>
       <c r="M134" t="n">
-        <v>13.46658630017191</v>
+        <v>32.30694148596376</v>
       </c>
       <c r="N134" t="n">
-        <v>266.0691005742109</v>
+        <v>278.6373886303863</v>
       </c>
       <c r="O134" t="n">
         <v>540.9958536667958</v>
@@ -7045,10 +7045,10 @@
         <v>7565154.566545373</v>
       </c>
       <c r="E135" t="n">
-        <v>427268.0107359459</v>
+        <v>427304.0984636791</v>
       </c>
       <c r="F135" t="n">
-        <v>7565176.459596397</v>
+        <v>7565157.839816517</v>
       </c>
       <c r="G135" t="n">
         <v>4</v>
@@ -7068,13 +7068,13 @@
         <v>-274.1814501271583</v>
       </c>
       <c r="L135" t="n">
-        <v>266.8357631260878</v>
+        <v>302.9234908593353</v>
       </c>
       <c r="M135" t="n">
-        <v>21.89305102452636</v>
+        <v>3.273271144367754</v>
       </c>
       <c r="N135" t="n">
-        <v>267.7323853519484</v>
+        <v>302.9411751782685</v>
       </c>
       <c r="O135" t="n">
         <v>540.9958536667958</v>
@@ -7094,10 +7094,10 @@
         <v>7573900.200234684</v>
       </c>
       <c r="E136" t="n">
-        <v>421171.5390705158</v>
+        <v>421146.1002986598</v>
       </c>
       <c r="F136" t="n">
-        <v>7573786.911143598</v>
+        <v>7573765.093049806</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7117,13 +7117,13 @@
         <v>-86.83115031570196</v>
       </c>
       <c r="L136" t="n">
-        <v>30.18411249818746</v>
+        <v>4.745340642111842</v>
       </c>
       <c r="M136" t="n">
-        <v>-113.2890910860151</v>
+        <v>-135.1071848785505</v>
       </c>
       <c r="N136" t="n">
-        <v>117.2411992705579</v>
+        <v>135.1904939839207</v>
       </c>
       <c r="O136" t="n">
         <v>87.60483223299717</v>
@@ -7143,10 +7143,10 @@
         <v>7573900.200234684</v>
       </c>
       <c r="E137" t="n">
-        <v>421078.867575239</v>
+        <v>421124.8001340794</v>
       </c>
       <c r="F137" t="n">
-        <v>7573736.115679829</v>
+        <v>7573719.587733486</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7166,13 +7166,13 @@
         <v>-86.83115031570196</v>
       </c>
       <c r="L137" t="n">
-        <v>-62.48738277860684</v>
+        <v>-16.55482393823331</v>
       </c>
       <c r="M137" t="n">
-        <v>-164.0845548547804</v>
+        <v>-180.6125011984259</v>
       </c>
       <c r="N137" t="n">
-        <v>175.5802214043813</v>
+        <v>181.3696164873745</v>
       </c>
       <c r="O137" t="n">
         <v>87.60483223299717</v>
@@ -7192,10 +7192,10 @@
         <v>7573900.200234684</v>
       </c>
       <c r="E138" t="n">
-        <v>421142.6547743401</v>
+        <v>421134.7604199069</v>
       </c>
       <c r="F138" t="n">
-        <v>7573937.988112721</v>
+        <v>7573933.559000282</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7215,13 +7215,13 @@
         <v>-86.83115031570196</v>
       </c>
       <c r="L138" t="n">
-        <v>1.299816322454717</v>
+        <v>-6.594538110715803</v>
       </c>
       <c r="M138" t="n">
-        <v>37.78787803649902</v>
+        <v>33.3587655974552</v>
       </c>
       <c r="N138" t="n">
-        <v>37.81022677759874</v>
+        <v>34.00434053293262</v>
       </c>
       <c r="O138" t="n">
         <v>87.60483223299717</v>
@@ -7241,10 +7241,10 @@
         <v>7573900.200234684</v>
       </c>
       <c r="E139" t="n">
-        <v>421128.2300116053</v>
+        <v>421108.6492320019</v>
       </c>
       <c r="F139" t="n">
-        <v>7573914.949696836</v>
+        <v>7573925.858926425</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7264,13 +7264,13 @@
         <v>-86.83115031570196</v>
       </c>
       <c r="L139" t="n">
-        <v>-13.12494641233934</v>
+        <v>-32.70572601578897</v>
       </c>
       <c r="M139" t="n">
-        <v>14.74946215189993</v>
+        <v>25.6586917405948</v>
       </c>
       <c r="N139" t="n">
-        <v>19.74362813915183</v>
+        <v>41.56961602010203</v>
       </c>
       <c r="O139" t="n">
         <v>87.60483223299717</v>
@@ -7290,10 +7290,10 @@
         <v>7573889.477154691</v>
       </c>
       <c r="E140" t="n">
-        <v>421106.6380760061</v>
+        <v>421092.5254206079</v>
       </c>
       <c r="F140" t="n">
-        <v>7573949.856907836</v>
+        <v>7573955.990320564</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7313,13 +7313,13 @@
         <v>-97.55423030909151</v>
       </c>
       <c r="L140" t="n">
-        <v>-82.0703155893134</v>
+        <v>-96.18297098757466</v>
       </c>
       <c r="M140" t="n">
-        <v>60.37975314538926</v>
+        <v>66.51316587347537</v>
       </c>
       <c r="N140" t="n">
-        <v>101.8884256960899</v>
+        <v>116.940861731514</v>
       </c>
       <c r="O140" t="n">
         <v>113.992791523481</v>
@@ -7339,10 +7339,10 @@
         <v>7573889.477154691</v>
       </c>
       <c r="E141" t="n">
-        <v>421090.0060494115</v>
+        <v>421081.1060370075</v>
       </c>
       <c r="F141" t="n">
-        <v>7573916.38335119</v>
+        <v>7573920.385790369</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7362,13 +7362,13 @@
         <v>-97.55423030909151</v>
       </c>
       <c r="L141" t="n">
-        <v>-98.70234218391124</v>
+        <v>-107.6023545879289</v>
       </c>
       <c r="M141" t="n">
-        <v>26.90619649924338</v>
+        <v>30.90863567776978</v>
       </c>
       <c r="N141" t="n">
-        <v>102.3039381580485</v>
+        <v>111.9536085721558</v>
       </c>
       <c r="O141" t="n">
         <v>113.992791523481</v>
@@ -7388,10 +7388,10 @@
         <v>7573889.477154691</v>
       </c>
       <c r="E142" t="n">
-        <v>421172.0699656975</v>
+        <v>421160.5688009876</v>
       </c>
       <c r="F142" t="n">
-        <v>7573947.906706921</v>
+        <v>7573945.65541766</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7411,13 +7411,13 @@
         <v>-97.55423030909151</v>
       </c>
       <c r="L142" t="n">
-        <v>-16.63842589798151</v>
+        <v>-28.13959060789784</v>
       </c>
       <c r="M142" t="n">
-        <v>58.42955223005265</v>
+        <v>56.17826296947896</v>
       </c>
       <c r="N142" t="n">
-        <v>60.75236448210944</v>
+        <v>62.83178964384211</v>
       </c>
       <c r="O142" t="n">
         <v>113.992791523481</v>
@@ -7437,10 +7437,10 @@
         <v>7573841.210708896</v>
       </c>
       <c r="E143" t="n">
-        <v>421074.5251236908</v>
+        <v>421108.3473926139</v>
       </c>
       <c r="F143" t="n">
-        <v>7573709.940804522</v>
+        <v>7573670.228522914</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7460,13 +7460,13 @@
         <v>-145.8206761041656</v>
       </c>
       <c r="L143" t="n">
-        <v>-202.5169247308513</v>
+        <v>-168.694655807747</v>
       </c>
       <c r="M143" t="n">
-        <v>-131.2699043732136</v>
+        <v>-170.9821859812364</v>
       </c>
       <c r="N143" t="n">
-        <v>241.3397866009539</v>
+        <v>240.1932447447604</v>
       </c>
       <c r="O143" t="n">
         <v>207.2732644944556</v>
@@ -7486,10 +7486,10 @@
         <v>7573841.210708896</v>
       </c>
       <c r="E144" t="n">
-        <v>421002.9568030893</v>
+        <v>421009.9653711113</v>
       </c>
       <c r="F144" t="n">
-        <v>7573692.878930658</v>
+        <v>7573643.971997068</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7509,13 +7509,13 @@
         <v>-145.8206761041656</v>
       </c>
       <c r="L144" t="n">
-        <v>-274.0852453323314</v>
+        <v>-267.0766773103387</v>
       </c>
       <c r="M144" t="n">
-        <v>-148.3317782375962</v>
+        <v>-197.2387118274346</v>
       </c>
       <c r="N144" t="n">
-        <v>311.6489020420443</v>
+        <v>332.0136458136571</v>
       </c>
       <c r="O144" t="n">
         <v>207.2732644944556</v>
@@ -7535,10 +7535,10 @@
         <v>7573743.815915435</v>
       </c>
       <c r="E145" t="n">
-        <v>421091.333728212</v>
+        <v>421094.0416632461</v>
       </c>
       <c r="F145" t="n">
-        <v>7573947.424823049</v>
+        <v>7573943.236261752</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7558,13 +7558,13 @@
         <v>-243.2154695652425</v>
       </c>
       <c r="L145" t="n">
-        <v>77.67321644508047</v>
+        <v>80.38115147920325</v>
       </c>
       <c r="M145" t="n">
-        <v>203.6089076148346</v>
+        <v>199.4203463178128</v>
       </c>
       <c r="N145" t="n">
-        <v>217.9213523568321</v>
+        <v>215.010706800008</v>
       </c>
       <c r="O145" t="n">
         <v>269.4952790421774</v>
@@ -7584,10 +7584,10 @@
         <v>7573743.815915435</v>
       </c>
       <c r="E146" t="n">
-        <v>420713.3598814028</v>
+        <v>420805.8258096891</v>
       </c>
       <c r="F146" t="n">
-        <v>7574026.539608106</v>
+        <v>7574012.751405899</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7607,13 +7607,13 @@
         <v>-243.2154695652425</v>
       </c>
       <c r="L146" t="n">
-        <v>-300.3006303641596</v>
+        <v>-207.8347020777874</v>
       </c>
       <c r="M146" t="n">
-        <v>282.7236926713958</v>
+        <v>268.9354904647917</v>
       </c>
       <c r="N146" t="n">
-        <v>412.4477603222759</v>
+        <v>339.8846295720074</v>
       </c>
       <c r="O146" t="n">
         <v>269.4952790421774</v>
@@ -7633,10 +7633,10 @@
         <v>7573743.815915435</v>
       </c>
       <c r="E147" t="n">
-        <v>421190.6344809848</v>
+        <v>421212.8804922196</v>
       </c>
       <c r="F147" t="n">
-        <v>7573774.100338968</v>
+        <v>7573784.554324881</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7656,13 +7656,13 @@
         <v>-243.2154695652425</v>
       </c>
       <c r="L147" t="n">
-        <v>176.9739692178555</v>
+        <v>199.2199804526754</v>
       </c>
       <c r="M147" t="n">
-        <v>30.28442353289574</v>
+        <v>40.7384094465524</v>
       </c>
       <c r="N147" t="n">
-        <v>179.5464622025237</v>
+        <v>203.3426138707755</v>
       </c>
       <c r="O147" t="n">
         <v>269.4952790421774</v>
@@ -7682,10 +7682,10 @@
         <v>7573743.815915435</v>
       </c>
       <c r="E148" t="n">
-        <v>421085.2854949869</v>
+        <v>421096.5771788227</v>
       </c>
       <c r="F148" t="n">
-        <v>7573829.486665534</v>
+        <v>7573837.14675564</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7705,13 +7705,13 @@
         <v>-243.2154695652425</v>
       </c>
       <c r="L148" t="n">
-        <v>71.62498321995372</v>
+        <v>82.91666705580428</v>
       </c>
       <c r="M148" t="n">
-        <v>85.67075009923428</v>
+        <v>93.33084020577371</v>
       </c>
       <c r="N148" t="n">
-        <v>111.6674332284221</v>
+        <v>124.8431792656642</v>
       </c>
       <c r="O148" t="n">
         <v>269.4952790421774</v>
@@ -7731,10 +7731,10 @@
         <v>7573723.219214113</v>
       </c>
       <c r="E149" t="n">
-        <v>421098.2946528613</v>
+        <v>421045.3042231974</v>
       </c>
       <c r="F149" t="n">
-        <v>7573674.388892467</v>
+        <v>7573658.911304363</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7754,13 +7754,13 @@
         <v>-263.8121708864346</v>
       </c>
       <c r="L149" t="n">
-        <v>-47.14311062043998</v>
+        <v>-100.1335402843542</v>
       </c>
       <c r="M149" t="n">
-        <v>-48.83032164629549</v>
+        <v>-64.30790975037962</v>
       </c>
       <c r="N149" t="n">
-        <v>67.87395075470202</v>
+        <v>119.0051811743563</v>
       </c>
       <c r="O149" t="n">
         <v>264.2789242965521</v>
@@ -7780,10 +7780,10 @@
         <v>7573723.219214113</v>
       </c>
       <c r="E150" t="n">
-        <v>421114.1534082092</v>
+        <v>421117.4660830068</v>
       </c>
       <c r="F150" t="n">
-        <v>7573756.661128202</v>
+        <v>7573746.978006521</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7803,13 +7803,13 @@
         <v>-263.8121708864346</v>
       </c>
       <c r="L150" t="n">
-        <v>-31.28435527259717</v>
+        <v>-27.97168047493324</v>
       </c>
       <c r="M150" t="n">
-        <v>33.44191408809274</v>
+        <v>23.75879240781069</v>
       </c>
       <c r="N150" t="n">
-        <v>45.79380419551813</v>
+        <v>36.70006982648949</v>
       </c>
       <c r="O150" t="n">
         <v>264.2789242965521</v>
@@ -7829,10 +7829,10 @@
         <v>7573680.618107362</v>
       </c>
       <c r="E151" t="n">
-        <v>421012.2076506432</v>
+        <v>421043.5687123555</v>
       </c>
       <c r="F151" t="n">
-        <v>7573695.152644038</v>
+        <v>7573631.763047809</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7852,13 +7852,13 @@
         <v>-306.4132776381448</v>
       </c>
       <c r="L151" t="n">
-        <v>-136.540468051855</v>
+        <v>-105.1794063395937</v>
       </c>
       <c r="M151" t="n">
-        <v>14.53453667648137</v>
+        <v>-48.85505955293775</v>
       </c>
       <c r="N151" t="n">
-        <v>137.3118792101383</v>
+        <v>115.9720844077162</v>
       </c>
       <c r="O151" t="n">
         <v>307.0024239049048</v>
@@ -7878,10 +7878,10 @@
         <v>7573680.618107362</v>
       </c>
       <c r="E152" t="n">
-        <v>421109.1847980598</v>
+        <v>421100.2755556199</v>
       </c>
       <c r="F152" t="n">
-        <v>7573701.445251373</v>
+        <v>7573685.803435076</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7901,13 +7901,13 @@
         <v>-306.4132776381448</v>
       </c>
       <c r="L152" t="n">
-        <v>-39.56332063523587</v>
+        <v>-48.47256307519274</v>
       </c>
       <c r="M152" t="n">
-        <v>20.8271440109238</v>
+        <v>5.185327714309096</v>
       </c>
       <c r="N152" t="n">
-        <v>44.71047156246777</v>
+        <v>48.74912301347913</v>
       </c>
       <c r="O152" t="n">
         <v>307.0024239049048</v>
@@ -7927,10 +7927,10 @@
         <v>7573680.618107362</v>
       </c>
       <c r="E153" t="n">
-        <v>421112.5067706032</v>
+        <v>421110.4326311144</v>
       </c>
       <c r="F153" t="n">
-        <v>7573730.754600368</v>
+        <v>7573715.174231885</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7950,13 +7950,13 @@
         <v>-306.4132776381448</v>
       </c>
       <c r="L153" t="n">
-        <v>-36.24134809180396</v>
+        <v>-38.31548758066492</v>
       </c>
       <c r="M153" t="n">
-        <v>50.13649300672114</v>
+        <v>34.55612452328205</v>
       </c>
       <c r="N153" t="n">
-        <v>61.86358575546927</v>
+        <v>51.59653409496284</v>
       </c>
       <c r="O153" t="n">
         <v>307.0024239049048</v>
@@ -7976,10 +7976,10 @@
         <v>7573680.618107362</v>
       </c>
       <c r="E154" t="n">
-        <v>421084.7203485419</v>
+        <v>421144.900929788</v>
       </c>
       <c r="F154" t="n">
-        <v>7573735.018993068</v>
+        <v>7573712.723336115</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7999,13 +7999,13 @@
         <v>-306.4132776381448</v>
       </c>
       <c r="L154" t="n">
-        <v>-64.02777015318861</v>
+        <v>-3.847188907035161</v>
       </c>
       <c r="M154" t="n">
-        <v>54.40088570676744</v>
+        <v>32.10522875282913</v>
       </c>
       <c r="N154" t="n">
-        <v>84.01792497122459</v>
+        <v>32.33491264497093</v>
       </c>
       <c r="O154" t="n">
         <v>307.0024239049048</v>
@@ -8025,10 +8025,10 @@
         <v>7573680.618107362</v>
       </c>
       <c r="E155" t="n">
-        <v>421100.0201017548</v>
+        <v>421094.3927723261</v>
       </c>
       <c r="F155" t="n">
-        <v>7573721.980998942</v>
+        <v>7573727.286028029</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8048,13 +8048,13 @@
         <v>-306.4132776381448</v>
       </c>
       <c r="L155" t="n">
-        <v>-48.72801694023656</v>
+        <v>-54.3553463689168</v>
       </c>
       <c r="M155" t="n">
-        <v>41.36289157997817</v>
+        <v>46.66792066767812</v>
       </c>
       <c r="N155" t="n">
-        <v>63.91641756845427</v>
+        <v>71.64076003456144</v>
       </c>
       <c r="O155" t="n">
         <v>307.0024239049048</v>
@@ -8074,10 +8074,10 @@
         <v>7573680.618107362</v>
       </c>
       <c r="E156" t="n">
-        <v>421106.6177061851</v>
+        <v>421106.1465153563</v>
       </c>
       <c r="F156" t="n">
-        <v>7573730.899272281</v>
+        <v>7573672.595233678</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8097,13 +8097,13 @@
         <v>-306.4132776381448</v>
       </c>
       <c r="L156" t="n">
-        <v>-42.13041250989772</v>
+        <v>-42.60160333878594</v>
       </c>
       <c r="M156" t="n">
-        <v>50.2811649190262</v>
+        <v>-8.022873683832586</v>
       </c>
       <c r="N156" t="n">
-        <v>65.59853050083102</v>
+        <v>43.35046838480515</v>
       </c>
       <c r="O156" t="n">
         <v>307.0024239049048</v>
@@ -8123,10 +8123,10 @@
         <v>7573657.736952459</v>
       </c>
       <c r="E157" t="n">
-        <v>421064.8799815765</v>
+        <v>421112.84217457</v>
       </c>
       <c r="F157" t="n">
-        <v>7573697.119363845</v>
+        <v>7573656.559225094</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8146,13 +8146,13 @@
         <v>-329.2944325413555</v>
       </c>
       <c r="L157" t="n">
-        <v>42.83803119731601</v>
+        <v>90.8002241908107</v>
       </c>
       <c r="M157" t="n">
-        <v>39.38241138681769</v>
+        <v>-1.177727364934981</v>
       </c>
       <c r="N157" t="n">
-        <v>58.18995827033018</v>
+        <v>90.80786174581802</v>
       </c>
       <c r="O157" t="n">
         <v>346.4581114506526</v>
@@ -8172,10 +8172,10 @@
         <v>7573657.736952459</v>
       </c>
       <c r="E158" t="n">
-        <v>421063.2422242321</v>
+        <v>421071.3127634319</v>
       </c>
       <c r="F158" t="n">
-        <v>7573760.724574568</v>
+        <v>7573766.586596825</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8195,13 +8195,13 @@
         <v>-329.2944325413555</v>
       </c>
       <c r="L158" t="n">
-        <v>41.20027385296999</v>
+        <v>49.27081305277534</v>
       </c>
       <c r="M158" t="n">
-        <v>102.9876221092418</v>
+        <v>108.8496443666518</v>
       </c>
       <c r="N158" t="n">
-        <v>110.9230042564468</v>
+        <v>119.4816224263301</v>
       </c>
       <c r="O158" t="n">
         <v>346.4581114506526</v>
@@ -8221,10 +8221,10 @@
         <v>7575954.708527632</v>
       </c>
       <c r="E159" t="n">
-        <v>424676.2067409835</v>
+        <v>424731.9921659176</v>
       </c>
       <c r="F159" t="n">
-        <v>7576144.246285425</v>
+        <v>7576143.149255624</v>
       </c>
       <c r="G159" t="n">
         <v>7</v>
@@ -8244,13 +8244,13 @@
         <v>4.206331346450107</v>
       </c>
       <c r="L159" t="n">
-        <v>74.59443693439243</v>
+        <v>130.3798618685105</v>
       </c>
       <c r="M159" t="n">
-        <v>189.5377577925101</v>
+        <v>188.4407279919833</v>
       </c>
       <c r="N159" t="n">
-        <v>203.6882216785528</v>
+        <v>229.1480227865833</v>
       </c>
       <c r="O159" t="n">
         <v>750.2996260564154</v>
@@ -8270,10 +8270,10 @@
         <v>7575954.708527632</v>
       </c>
       <c r="E160" t="n">
-        <v>424576.5526901792</v>
+        <v>424612.0826744313</v>
       </c>
       <c r="F160" t="n">
-        <v>7575942.14692332</v>
+        <v>7575951.284753039</v>
       </c>
       <c r="G160" t="n">
         <v>8</v>
@@ -8293,13 +8293,13 @@
         <v>185.3827432570979</v>
       </c>
       <c r="L160" t="n">
-        <v>-25.05961386987474</v>
+        <v>10.47037038218696</v>
       </c>
       <c r="M160" t="n">
-        <v>-12.56160431168973</v>
+        <v>-3.423774593509734</v>
       </c>
       <c r="N160" t="n">
-        <v>28.03173469820732</v>
+        <v>11.01593792681043</v>
       </c>
       <c r="O160" t="n">
         <v>1060.240461805684</v>
@@ -8319,10 +8319,10 @@
         <v>7575954.708527632</v>
       </c>
       <c r="E161" t="n">
-        <v>424642.5721217111</v>
+        <v>424703.3773618783</v>
       </c>
       <c r="F161" t="n">
-        <v>7576086.247397266</v>
+        <v>7576106.868207769</v>
       </c>
       <c r="G161" t="n">
         <v>7</v>
@@ -8342,13 +8342,13 @@
         <v>171.753767632081</v>
       </c>
       <c r="L161" t="n">
-        <v>40.95981766202021</v>
+        <v>101.7650578292669</v>
       </c>
       <c r="M161" t="n">
-        <v>131.5388696342707</v>
+        <v>152.1596801364794</v>
       </c>
       <c r="N161" t="n">
-        <v>137.7685772865772</v>
+        <v>183.0538042604681</v>
       </c>
       <c r="O161" t="n">
         <v>971.8355815744785</v>
@@ -8368,10 +8368,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E162" t="n">
-        <v>421330.3558268877</v>
+        <v>421469.7278227451</v>
       </c>
       <c r="F162" t="n">
-        <v>7573727.707614976</v>
+        <v>7573808.245074162</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8391,13 +8391,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L162" t="n">
-        <v>111.6144659813726</v>
+        <v>250.9864618388237</v>
       </c>
       <c r="M162" t="n">
-        <v>-82.7720425799489</v>
+        <v>-2.234583393670619</v>
       </c>
       <c r="N162" t="n">
-        <v>138.9568280048298</v>
+        <v>250.9964091163748</v>
       </c>
       <c r="O162" t="n">
         <v>197.7173317929186</v>
@@ -8417,10 +8417,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E163" t="n">
-        <v>421391.0470824179</v>
+        <v>421400.2635506633</v>
       </c>
       <c r="F163" t="n">
-        <v>7573717.927017418</v>
+        <v>7573771.428764168</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8440,13 +8440,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L163" t="n">
-        <v>172.3057215115987</v>
+        <v>181.5221897569718</v>
       </c>
       <c r="M163" t="n">
-        <v>-92.55264013819396</v>
+        <v>-39.05089338775724</v>
       </c>
       <c r="N163" t="n">
-        <v>195.5895008996716</v>
+        <v>185.6751939504792</v>
       </c>
       <c r="O163" t="n">
         <v>197.7173317929186</v>
@@ -8466,10 +8466,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E164" t="n">
-        <v>421209.9360921939</v>
+        <v>421155.4872793796</v>
       </c>
       <c r="F164" t="n">
-        <v>7573725.867432207</v>
+        <v>7573797.024828771</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8489,13 +8489,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L164" t="n">
-        <v>-8.805268712341785</v>
+        <v>-63.25408152665477</v>
       </c>
       <c r="M164" t="n">
-        <v>-84.61222534906119</v>
+        <v>-13.45482878480107</v>
       </c>
       <c r="N164" t="n">
-        <v>85.06915678209617</v>
+        <v>64.66924498870387</v>
       </c>
       <c r="O164" t="n">
         <v>197.7173317929186</v>
@@ -8515,10 +8515,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E165" t="n">
-        <v>421151.8687413977</v>
+        <v>421095.7714315745</v>
       </c>
       <c r="F165" t="n">
-        <v>7573833.059863549</v>
+        <v>7573851.633509624</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8538,13 +8538,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L165" t="n">
-        <v>-66.87261950859101</v>
+        <v>-122.9699293317972</v>
       </c>
       <c r="M165" t="n">
-        <v>22.58020599279553</v>
+        <v>41.15385206788778</v>
       </c>
       <c r="N165" t="n">
-        <v>70.58195904491365</v>
+        <v>129.6736020163425</v>
       </c>
       <c r="O165" t="n">
         <v>197.7173317929186</v>
@@ -8564,10 +8564,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E166" t="n">
-        <v>421154.5438751802</v>
+        <v>421170.7759267072</v>
       </c>
       <c r="F166" t="n">
-        <v>7573854.546746549</v>
+        <v>7573827.943725389</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8587,13 +8587,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L166" t="n">
-        <v>-64.19748572609387</v>
+        <v>-47.96543419908267</v>
       </c>
       <c r="M166" t="n">
-        <v>44.06708899326622</v>
+        <v>17.46406783349812</v>
       </c>
       <c r="N166" t="n">
-        <v>77.866716290675</v>
+        <v>51.04582787260436</v>
       </c>
       <c r="O166" t="n">
         <v>197.7173317929186</v>
@@ -8613,10 +8613,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E167" t="n">
-        <v>421172.431183798</v>
+        <v>421224.7922336328</v>
       </c>
       <c r="F167" t="n">
-        <v>7573880.296535858</v>
+        <v>7573872.551144142</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8636,13 +8636,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L167" t="n">
-        <v>-46.31017710827291</v>
+        <v>6.050872726482339</v>
       </c>
       <c r="M167" t="n">
-        <v>69.81687830202281</v>
+        <v>62.07148658577353</v>
       </c>
       <c r="N167" t="n">
-        <v>83.77964549721531</v>
+        <v>62.3657158037968</v>
       </c>
       <c r="O167" t="n">
         <v>197.7173317929186</v>
@@ -8662,10 +8662,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E168" t="n">
-        <v>421128.3783705571</v>
+        <v>421122.5008366684</v>
       </c>
       <c r="F168" t="n">
-        <v>7573941.412907101</v>
+        <v>7573940.17062897</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8685,13 +8685,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L168" t="n">
-        <v>-90.36299034918193</v>
+        <v>-96.24052423785906</v>
       </c>
       <c r="M168" t="n">
-        <v>130.9332495452836</v>
+        <v>129.6909714145586</v>
       </c>
       <c r="N168" t="n">
-        <v>159.0879815112816</v>
+        <v>161.4991844314695</v>
       </c>
       <c r="O168" t="n">
         <v>197.7173317929186</v>
@@ -8711,10 +8711,10 @@
         <v>7574008.755178696</v>
       </c>
       <c r="E169" t="n">
-        <v>421174.3897745509</v>
+        <v>421192.5343689191</v>
       </c>
       <c r="F169" t="n">
-        <v>7573898.874641359</v>
+        <v>7573923.565992224</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8734,13 +8734,13 @@
         <v>21.72379369661212</v>
       </c>
       <c r="L169" t="n">
-        <v>-48.52903749782126</v>
+        <v>-30.38444312964566</v>
       </c>
       <c r="M169" t="n">
-        <v>-109.8805373376235</v>
+        <v>-85.18918647244573</v>
       </c>
       <c r="N169" t="n">
-        <v>120.1199399186905</v>
+        <v>90.44562939211491</v>
       </c>
       <c r="O169" t="n">
         <v>95.67978391929492</v>
@@ -8760,10 +8760,10 @@
         <v>7574008.755178696</v>
       </c>
       <c r="E170" t="n">
-        <v>421178.3375888389</v>
+        <v>421160.2868787217</v>
       </c>
       <c r="F170" t="n">
-        <v>7573916.473992209</v>
+        <v>7573938.436388789</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8783,13 +8783,13 @@
         <v>21.72379369661212</v>
       </c>
       <c r="L170" t="n">
-        <v>-44.58122320985422</v>
+        <v>-62.63193332706578</v>
       </c>
       <c r="M170" t="n">
-        <v>-92.2811864875257</v>
+        <v>-70.31878990773112</v>
       </c>
       <c r="N170" t="n">
-        <v>102.4856226132834</v>
+        <v>94.16735786021418</v>
       </c>
       <c r="O170" t="n">
         <v>95.67978391929492</v>
@@ -8809,10 +8809,10 @@
         <v>7574008.755178696</v>
       </c>
       <c r="E171" t="n">
-        <v>421046.8856387662</v>
+        <v>421020.6070758792</v>
       </c>
       <c r="F171" t="n">
-        <v>7573714.64786043</v>
+        <v>7573688.982929736</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8832,13 +8832,13 @@
         <v>21.72379369661212</v>
       </c>
       <c r="L171" t="n">
-        <v>-176.0331732825725</v>
+        <v>-202.311736169504</v>
       </c>
       <c r="M171" t="n">
-        <v>-294.1073182662949</v>
+        <v>-319.7722489601001</v>
       </c>
       <c r="N171" t="n">
-        <v>342.7634647300145</v>
+        <v>378.3970531028476</v>
       </c>
       <c r="O171" t="n">
         <v>95.67978391929492</v>
@@ -8858,10 +8858,10 @@
         <v>7574008.755178696</v>
       </c>
       <c r="E172" t="n">
-        <v>421072.6594774764</v>
+        <v>421089.7631477508</v>
       </c>
       <c r="F172" t="n">
-        <v>7573705.65077446</v>
+        <v>7573668.6516233</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8881,13 +8881,13 @@
         <v>21.72379369661212</v>
       </c>
       <c r="L172" t="n">
-        <v>-150.2593345723581</v>
+        <v>-133.1556642979849</v>
       </c>
       <c r="M172" t="n">
-        <v>-303.10440423619</v>
+        <v>-340.1035553961992</v>
       </c>
       <c r="N172" t="n">
-        <v>338.3048144698853</v>
+        <v>365.2408237420527</v>
       </c>
       <c r="O172" t="n">
         <v>95.67978391929492</v>
@@ -8907,10 +8907,10 @@
         <v>7573964.485934421</v>
       </c>
       <c r="E173" t="n">
-        <v>421096.5895247845</v>
+        <v>421085.9878160978</v>
       </c>
       <c r="F173" t="n">
-        <v>7573937.080997733</v>
+        <v>7573920.854030392</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8930,13 +8930,13 @@
         <v>-22.54545057844371</v>
       </c>
       <c r="L173" t="n">
-        <v>27.53783421812113</v>
+        <v>16.93612553144339</v>
       </c>
       <c r="M173" t="n">
-        <v>-27.40493668802083</v>
+        <v>-43.6319040292874</v>
       </c>
       <c r="N173" t="n">
-        <v>38.85051953705578</v>
+        <v>46.80358316665247</v>
       </c>
       <c r="O173" t="n">
         <v>64.73873093680069</v>
@@ -8956,10 +8956,10 @@
         <v>7573964.485934421</v>
       </c>
       <c r="E174" t="n">
-        <v>421085.6131714687</v>
+        <v>421039.5666708517</v>
       </c>
       <c r="F174" t="n">
-        <v>7573883.91196857</v>
+        <v>7573891.79132516</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8979,13 +8979,13 @@
         <v>-22.54545057844371</v>
       </c>
       <c r="L174" t="n">
-        <v>16.5614809023682</v>
+        <v>-29.48501971468795</v>
       </c>
       <c r="M174" t="n">
-        <v>-80.57396585121751</v>
+        <v>-72.69460926111788</v>
       </c>
       <c r="N174" t="n">
-        <v>82.25841368925535</v>
+        <v>78.44662263732036</v>
       </c>
       <c r="O174" t="n">
         <v>64.73873093680069</v>
@@ -9005,10 +9005,10 @@
         <v>7573680.891654283</v>
       </c>
       <c r="E175" t="n">
-        <v>421048.5361364658</v>
+        <v>421115.1053316089</v>
       </c>
       <c r="F175" t="n">
-        <v>7573627.875733654</v>
+        <v>7573684.892811688</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -9028,13 +9028,13 @@
         <v>-306.1397307170555</v>
       </c>
       <c r="L175" t="n">
-        <v>-66.23352646781132</v>
+        <v>0.3356686753104441</v>
       </c>
       <c r="M175" t="n">
-        <v>-53.01592062879354</v>
+        <v>4.001157404854894</v>
       </c>
       <c r="N175" t="n">
-        <v>84.8384810594862</v>
+        <v>4.015212825991895</v>
       </c>
       <c r="O175" t="n">
         <v>306.5054328387463</v>
@@ -9054,10 +9054,10 @@
         <v>7573680.891654283</v>
       </c>
       <c r="E176" t="n">
-        <v>421145.3984351848</v>
+        <v>421136.1732298824</v>
       </c>
       <c r="F176" t="n">
-        <v>7573720.56741121</v>
+        <v>7573774.7216302</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -9077,13 +9077,13 @@
         <v>-306.1397307170555</v>
       </c>
       <c r="L176" t="n">
-        <v>30.62877225119155</v>
+        <v>21.40356694877846</v>
       </c>
       <c r="M176" t="n">
-        <v>39.67575692757964</v>
+        <v>93.82997591700405</v>
       </c>
       <c r="N176" t="n">
-        <v>50.12272316416722</v>
+        <v>96.24020500142548</v>
       </c>
       <c r="O176" t="n">
         <v>306.5054328387463</v>
@@ -9103,10 +9103,10 @@
         <v>7573680.891654283</v>
       </c>
       <c r="E177" t="n">
-        <v>421163.591866289</v>
+        <v>421130.3095466</v>
       </c>
       <c r="F177" t="n">
-        <v>7573676.213578697</v>
+        <v>7573720.529922558</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -9126,13 +9126,13 @@
         <v>-306.1397307170555</v>
       </c>
       <c r="L177" t="n">
-        <v>48.82220335543389</v>
+        <v>15.53988366638077</v>
       </c>
       <c r="M177" t="n">
-        <v>-4.678075585514307</v>
+        <v>39.63826827518642</v>
       </c>
       <c r="N177" t="n">
-        <v>49.04581461922235</v>
+        <v>42.57558333388162</v>
       </c>
       <c r="O177" t="n">
         <v>306.5054328387463</v>
